--- a/finrisk/Lab3/DataLab3Student.xlsx
+++ b/finrisk/Lab3/DataLab3Student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristoffer/Documents/GitHub/LP32020/finrisk/Lab3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah\Desktop\Skola\År 4\Finrisk + Monte Carlo\LP32020\LP32020\finrisk\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EEA6E3B-173B-534D-BF20-37176B5FFCC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C027D10-3E1B-40AE-95A4-13C132F26369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="2745" windowWidth="19185" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -75,43 +77,16 @@
     <t>YEARLY RISK-FREE RATE (decimal)</t>
   </si>
   <si>
-    <t>March 1998</t>
-  </si>
-  <si>
-    <t>October 1998</t>
-  </si>
-  <si>
-    <t>October 2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> September 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> November 2000</t>
-  </si>
-  <si>
-    <t>RISK-FREE RATE</t>
-  </si>
-  <si>
-    <t>ASSET VOLATILITY</t>
-  </si>
-  <si>
     <t>N(d1)</t>
   </si>
   <si>
     <t>N(d2)</t>
   </si>
   <si>
-    <t>SOLVER</t>
-  </si>
-  <si>
     <t>DD</t>
   </si>
   <si>
     <t>PD</t>
-  </si>
-  <si>
-    <t>CREDIT SPREAD</t>
   </si>
   <si>
     <t>Number of shares</t>
@@ -123,19 +98,46 @@
     <t>d2</t>
   </si>
   <si>
-    <t>EQUITY VALUE [E]</t>
-  </si>
-  <si>
-    <t>FACE VALUE OF DEBT [K]</t>
-  </si>
-  <si>
-    <t>ASSET VALUE [A]</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
     <t>LOG-returns:</t>
+  </si>
+  <si>
+    <t>Credit Spread</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>$r_f$</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>$\sigma_A$</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sep 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nov 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mar 98</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oct 98</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oct 01</t>
   </si>
 </sst>
 </file>
@@ -210,7 +212,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,28 +550,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -578,7 +580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>35797</v>
       </c>
@@ -598,23 +600,23 @@
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="I2" s="8"/>
-      <c r="K2" s="7" t="s">
-        <v>3</v>
+      <c r="K2" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>35800</v>
       </c>
@@ -638,7 +640,7 @@
         <v>4.36E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>35802</v>
       </c>
@@ -662,7 +664,7 @@
         <v>4.36E-2</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K4" s="11">
         <f>K20*AVERAGE(B22:B41)/10^9</f>
@@ -685,7 +687,7 @@
         <v>1037.1310872272727</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>35803</v>
       </c>
@@ -709,7 +711,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K5" s="10">
         <f>AVERAGE(H22:H41)</f>
@@ -732,7 +734,7 @@
         <v>3.9831818181818184E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>35804</v>
       </c>
@@ -756,7 +758,7 @@
         <v>4.4800000000000006E-2</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K6" s="11">
         <f>AVERAGE(E23:E42)/10^9</f>
@@ -779,7 +781,7 @@
         <v>763.3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>35807</v>
       </c>
@@ -803,7 +805,7 @@
         <v>4.4299999999999999E-2</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K7">
         <f>_xlfn.STDEV.P(C22:C41)*SQRT(252)/2</f>
@@ -826,7 +828,7 @@
         <v>0.44353842174417862</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>35808</v>
       </c>
@@ -850,7 +852,7 @@
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="11">
         <v>778.20702036411251</v>
@@ -868,7 +870,7 @@
         <v>1766.2046813630648</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>35809</v>
       </c>
@@ -892,7 +894,7 @@
         <v>4.4199999999999996E-2</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K9">
         <f>(LN(K8/K6) + (K5+(K7^2)/2))/K7</f>
@@ -915,7 +917,7 @@
         <v>2.2030382776672157</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>35810</v>
       </c>
@@ -939,7 +941,7 @@
         <v>4.4199999999999996E-2</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K10">
         <f>K9-K7</f>
@@ -962,7 +964,7 @@
         <v>1.759499855923037</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>35811</v>
       </c>
@@ -986,7 +988,7 @@
         <v>4.4199999999999996E-2</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K11">
         <f>_xlfn.NORM.S.DIST(K9,TRUE)</f>
@@ -1009,7 +1011,7 @@
         <v>0.98620397456827325</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>35814</v>
       </c>
@@ -1033,7 +1035,7 @@
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K12">
         <f>_xlfn.NORM.S.DIST(K10,TRUE)</f>
@@ -1056,7 +1058,7 @@
         <v>0.96075367765228503</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>35815</v>
       </c>
@@ -1080,7 +1082,7 @@
         <v>4.41E-2</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K13" s="9">
         <f xml:space="preserve"> (K4-(K8*K11-K6*EXP(-K5)*K12))^2</f>
@@ -1103,7 +1105,7 @@
         <v>7.1754980205404394E-14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>35816</v>
       </c>
@@ -1127,7 +1129,7 @@
         <v>4.3899999999999995E-2</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K14">
         <f>(LN(K8/K6)+(K5-K7^2/2)/(K8))</f>
@@ -1150,7 +1152,7 @@
         <v>0.83890399713753538</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>35817</v>
       </c>
@@ -1174,7 +1176,7 @@
         <v>4.3899999999999995E-2</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K15">
         <f>_xlfn.NORM.S.DIST(-K14,TRUE)</f>
@@ -1197,7 +1199,7 @@
         <v>0.20076159229865853</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>35818</v>
       </c>
@@ -1221,7 +1223,7 @@
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K16" s="12">
         <f>(LN(K6)-LN(K8-K4))-K5</f>
@@ -1244,7 +1246,7 @@
         <v>6.0446415339786078E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>35821</v>
       </c>
@@ -1268,7 +1270,7 @@
         <v>4.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>35822</v>
       </c>
@@ -1292,7 +1294,7 @@
         <v>4.3700000000000003E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>35823</v>
       </c>
@@ -1316,7 +1318,7 @@
         <v>4.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>35824</v>
       </c>
@@ -1340,13 +1342,13 @@
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K20">
         <v>7409282000</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>35825</v>
       </c>
@@ -1370,13 +1372,13 @@
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>35828</v>
       </c>
@@ -1400,7 +1402,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>35829</v>
       </c>
@@ -1424,7 +1426,7 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>35830</v>
       </c>
@@ -1448,7 +1450,7 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>35831</v>
       </c>
@@ -1472,7 +1474,7 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>35832</v>
       </c>
@@ -1496,7 +1498,7 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>35835</v>
       </c>
@@ -1520,7 +1522,7 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>35836</v>
       </c>
@@ -1544,7 +1546,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>35837</v>
       </c>
@@ -1568,7 +1570,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>35838</v>
       </c>
@@ -1592,7 +1594,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>35839</v>
       </c>
@@ -1617,7 +1619,7 @@
       </c>
       <c r="K31" s="11"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>35842</v>
       </c>
@@ -1642,7 +1644,7 @@
       </c>
       <c r="K32" s="11"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>35843</v>
       </c>
@@ -1666,7 +1668,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>35844</v>
       </c>
@@ -1690,7 +1692,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35845</v>
       </c>
@@ -1714,7 +1716,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35846</v>
       </c>
@@ -1738,7 +1740,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35849</v>
       </c>
@@ -1762,7 +1764,7 @@
         <v>4.3899999999999995E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35850</v>
       </c>
@@ -1786,7 +1788,7 @@
         <v>4.3899999999999995E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>35851</v>
       </c>
@@ -1810,7 +1812,7 @@
         <v>4.41E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>35852</v>
       </c>
@@ -1834,7 +1836,7 @@
         <v>4.4600000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>35853</v>
       </c>
@@ -1858,7 +1860,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>35856</v>
       </c>
@@ -1882,7 +1884,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>35857</v>
       </c>
@@ -1906,7 +1908,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>35858</v>
       </c>
@@ -1930,7 +1932,7 @@
         <v>4.5199999999999997E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>35859</v>
       </c>
@@ -1954,7 +1956,7 @@
         <v>4.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>35860</v>
       </c>
@@ -1978,7 +1980,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>35863</v>
       </c>
@@ -2002,7 +2004,7 @@
         <v>4.4800000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>35864</v>
       </c>
@@ -2026,7 +2028,7 @@
         <v>4.4800000000000006E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>35865</v>
       </c>
@@ -2050,7 +2052,7 @@
         <v>4.4800000000000006E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>35866</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>35867</v>
       </c>
@@ -2098,7 +2100,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>35870</v>
       </c>
@@ -2122,7 +2124,7 @@
         <v>4.4800000000000006E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>35871</v>
       </c>
@@ -2146,7 +2148,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>35872</v>
       </c>
@@ -2170,7 +2172,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>35873</v>
       </c>
@@ -2194,7 +2196,7 @@
         <v>4.53E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>35874</v>
       </c>
@@ -2218,7 +2220,7 @@
         <v>4.5199999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>35877</v>
       </c>
@@ -2242,7 +2244,7 @@
         <v>4.53E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>35878</v>
       </c>
@@ -2266,7 +2268,7 @@
         <v>4.53E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>35879</v>
       </c>
@@ -2290,7 +2292,7 @@
         <v>4.5199999999999997E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>35880</v>
       </c>
@@ -2314,7 +2316,7 @@
         <v>4.5199999999999997E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>35881</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>4.4600000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>35884</v>
       </c>
@@ -2362,7 +2364,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>35885</v>
       </c>
@@ -2386,7 +2388,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>35886</v>
       </c>
@@ -2410,7 +2412,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>35887</v>
       </c>
@@ -2434,7 +2436,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>35888</v>
       </c>
@@ -2458,7 +2460,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>35891</v>
       </c>
@@ -2482,7 +2484,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>35892</v>
       </c>
@@ -2506,7 +2508,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>35893</v>
       </c>
@@ -2530,7 +2532,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>35894</v>
       </c>
@@ -2554,7 +2556,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>35899</v>
       </c>
@@ -2578,7 +2580,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>35900</v>
       </c>
@@ -2602,7 +2604,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>35901</v>
       </c>
@@ -2626,7 +2628,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>35902</v>
       </c>
@@ -2650,7 +2652,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>35905</v>
       </c>
@@ -2674,7 +2676,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>35906</v>
       </c>
@@ -2698,7 +2700,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>35907</v>
       </c>
@@ -2722,7 +2724,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>35908</v>
       </c>
@@ -2746,7 +2748,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>35909</v>
       </c>
@@ -2770,7 +2772,7 @@
         <v>4.4800000000000006E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>35912</v>
       </c>
@@ -2794,7 +2796,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>35913</v>
       </c>
@@ -2818,7 +2820,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>35914</v>
       </c>
@@ -2842,7 +2844,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>35915</v>
       </c>
@@ -2866,7 +2868,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>35919</v>
       </c>
@@ -2890,7 +2892,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>35920</v>
       </c>
@@ -2914,7 +2916,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>35921</v>
       </c>
@@ -2938,7 +2940,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>35922</v>
       </c>
@@ -2962,7 +2964,7 @@
         <v>4.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>35923</v>
       </c>
@@ -2986,7 +2988,7 @@
         <v>4.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>35926</v>
       </c>
@@ -3010,7 +3012,7 @@
         <v>4.5199999999999997E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>35927</v>
       </c>
@@ -3034,7 +3036,7 @@
         <v>4.5199999999999997E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>35928</v>
       </c>
@@ -3058,7 +3060,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>35929</v>
       </c>
@@ -3082,7 +3084,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>35930</v>
       </c>
@@ -3106,7 +3108,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>35933</v>
       </c>
@@ -3130,7 +3132,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>35934</v>
       </c>
@@ -3154,7 +3156,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>35935</v>
       </c>
@@ -3178,7 +3180,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>35937</v>
       </c>
@@ -3202,7 +3204,7 @@
         <v>4.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>35940</v>
       </c>
@@ -3226,7 +3228,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>35941</v>
       </c>
@@ -3250,7 +3252,7 @@
         <v>4.4800000000000006E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>35942</v>
       </c>
@@ -3274,7 +3276,7 @@
         <v>4.41E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>35943</v>
       </c>
@@ -3298,7 +3300,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>35944</v>
       </c>
@@ -3322,7 +3324,7 @@
         <v>4.2800000000000005E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>35948</v>
       </c>
@@ -3346,7 +3348,7 @@
         <v>4.2699999999999995E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>35949</v>
       </c>
@@ -3370,7 +3372,7 @@
         <v>4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>35950</v>
       </c>
@@ -3394,7 +3396,7 @@
         <v>4.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>35951</v>
       </c>
@@ -3418,7 +3420,7 @@
         <v>4.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>35954</v>
       </c>
@@ -3442,7 +3444,7 @@
         <v>4.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>35955</v>
       </c>
@@ -3466,7 +3468,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>35956</v>
       </c>
@@ -3490,7 +3492,7 @@
         <v>4.1500000000000002E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>35957</v>
       </c>
@@ -3514,7 +3516,7 @@
         <v>4.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>35958</v>
       </c>
@@ -3538,7 +3540,7 @@
         <v>4.2300000000000004E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>35961</v>
       </c>
@@ -3562,7 +3564,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>35962</v>
       </c>
@@ -3586,7 +3588,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>35963</v>
       </c>
@@ -3610,7 +3612,7 @@
         <v>4.2199999999999994E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>35964</v>
       </c>
@@ -3634,7 +3636,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>35968</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>35969</v>
       </c>
@@ -3682,7 +3684,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>35970</v>
       </c>
@@ -3706,7 +3708,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>35971</v>
       </c>
@@ -3730,7 +3732,7 @@
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>35972</v>
       </c>
@@ -3754,7 +3756,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>35975</v>
       </c>
@@ -3778,7 +3780,7 @@
         <v>4.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>35976</v>
       </c>
@@ -3802,7 +3804,7 @@
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>35977</v>
       </c>
@@ -3826,7 +3828,7 @@
         <v>4.1900000000000007E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>35978</v>
       </c>
@@ -3850,7 +3852,7 @@
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>35979</v>
       </c>
@@ -3874,7 +3876,7 @@
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>35982</v>
       </c>
@@ -3898,7 +3900,7 @@
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>35983</v>
       </c>
@@ -3922,7 +3924,7 @@
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>35984</v>
       </c>
@@ -3946,7 +3948,7 @@
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>35985</v>
       </c>
@@ -3970,7 +3972,7 @@
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>35986</v>
       </c>
@@ -3994,7 +3996,7 @@
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>35989</v>
       </c>
@@ -4018,7 +4020,7 @@
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>35990</v>
       </c>
@@ -4042,7 +4044,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>35991</v>
       </c>
@@ -4066,7 +4068,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>35992</v>
       </c>
@@ -4090,7 +4092,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>35996</v>
       </c>
@@ -4114,7 +4116,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>35998</v>
       </c>
@@ -4138,7 +4140,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>35999</v>
       </c>
@@ -4162,7 +4164,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>36000</v>
       </c>
@@ -4186,7 +4188,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>36003</v>
       </c>
@@ -4210,7 +4212,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>36004</v>
       </c>
@@ -4234,7 +4236,7 @@
         <v>4.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>36005</v>
       </c>
@@ -4258,7 +4260,7 @@
         <v>4.1200000000000001E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>36006</v>
       </c>
@@ -4282,7 +4284,7 @@
         <v>4.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>36007</v>
       </c>
@@ -4306,7 +4308,7 @@
         <v>4.1299999999999996E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>36010</v>
       </c>
@@ -4330,7 +4332,7 @@
         <v>4.1299999999999996E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>36011</v>
       </c>
@@ -4354,7 +4356,7 @@
         <v>4.1500000000000002E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>36012</v>
       </c>
@@ -4378,7 +4380,7 @@
         <v>4.1500000000000002E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>36013</v>
       </c>
@@ -4402,7 +4404,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>36014</v>
       </c>
@@ -4426,7 +4428,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>36017</v>
       </c>
@@ -4450,7 +4452,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>36018</v>
       </c>
@@ -4474,7 +4476,7 @@
         <v>4.1500000000000002E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>36019</v>
       </c>
@@ -4498,7 +4500,7 @@
         <v>4.1500000000000002E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>36020</v>
       </c>
@@ -4522,7 +4524,7 @@
         <v>4.1500000000000002E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>36021</v>
       </c>
@@ -4546,7 +4548,7 @@
         <v>4.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>36024</v>
       </c>
@@ -4570,7 +4572,7 @@
         <v>4.1299999999999996E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>36025</v>
       </c>
@@ -4594,7 +4596,7 @@
         <v>4.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>36026</v>
       </c>
@@ -4618,7 +4620,7 @@
         <v>4.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>36027</v>
       </c>
@@ -4642,7 +4644,7 @@
         <v>4.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>36028</v>
       </c>
@@ -4666,7 +4668,7 @@
         <v>4.1900000000000007E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>36031</v>
       </c>
@@ -4690,7 +4692,7 @@
         <v>4.2300000000000004E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>36032</v>
       </c>
@@ -4714,7 +4716,7 @@
         <v>4.2800000000000005E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>36033</v>
       </c>
@@ -4738,7 +4740,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>36034</v>
       </c>
@@ -4762,7 +4764,7 @@
         <v>4.2800000000000005E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>36035</v>
       </c>
@@ -4786,7 +4788,7 @@
         <v>4.2199999999999994E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>36038</v>
       </c>
@@ -4810,7 +4812,7 @@
         <v>4.1900000000000007E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>36039</v>
       </c>
@@ -4834,7 +4836,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>36040</v>
       </c>
@@ -4858,7 +4860,7 @@
         <v>4.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>36041</v>
       </c>
@@ -4882,7 +4884,7 @@
         <v>4.1500000000000002E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>36042</v>
       </c>
@@ -4906,7 +4908,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>36045</v>
       </c>
@@ -4930,7 +4932,7 @@
         <v>4.0999999999999995E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>36046</v>
       </c>
@@ -4954,7 +4956,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>36047</v>
       </c>
@@ -4978,7 +4980,7 @@
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>36048</v>
       </c>
@@ -5002,7 +5004,7 @@
         <v>4.1900000000000007E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>36049</v>
       </c>
@@ -5026,7 +5028,7 @@
         <v>4.1749999999999995E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>36052</v>
       </c>
@@ -5050,7 +5052,7 @@
         <v>4.1749999999999995E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>36053</v>
       </c>
@@ -5074,7 +5076,7 @@
         <v>4.165E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>36054</v>
       </c>
@@ -5098,7 +5100,7 @@
         <v>4.165E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>36055</v>
       </c>
@@ -5122,7 +5124,7 @@
         <v>4.1950000000000001E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>36056</v>
       </c>
@@ -5146,7 +5148,7 @@
         <v>4.2050000000000004E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>36059</v>
       </c>
@@ -5170,7 +5172,7 @@
         <v>4.2549999999999998E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>36060</v>
       </c>
@@ -5194,7 +5196,7 @@
         <v>4.165E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>36061</v>
       </c>
@@ -5218,7 +5220,7 @@
         <v>4.2350000000000006E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>36062</v>
       </c>
@@ -5242,7 +5244,7 @@
         <v>4.2350000000000006E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>36063</v>
       </c>
@@ -5266,7 +5268,7 @@
         <v>4.2350000000000006E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>36066</v>
       </c>
@@ -5290,7 +5292,7 @@
         <v>4.215E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>36067</v>
       </c>
@@ -5314,7 +5316,7 @@
         <v>4.2050000000000004E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>36068</v>
       </c>
@@ -5338,7 +5340,7 @@
         <v>4.1950000000000001E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>36069</v>
       </c>
@@ -5362,7 +5364,7 @@
         <v>4.1950000000000001E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>36070</v>
       </c>
@@ -5386,7 +5388,7 @@
         <v>4.1950000000000001E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>36073</v>
       </c>
@@ -5410,7 +5412,7 @@
         <v>4.2249999999999996E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>36074</v>
       </c>
@@ -5434,7 +5436,7 @@
         <v>4.2249999999999996E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>36075</v>
       </c>
@@ -5458,7 +5460,7 @@
         <v>4.2249999999999996E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>36076</v>
       </c>
@@ -5482,7 +5484,7 @@
         <v>4.2450000000000002E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>36077</v>
       </c>
@@ -5506,7 +5508,7 @@
         <v>4.2450000000000002E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>36080</v>
       </c>
@@ -5530,7 +5532,7 @@
         <v>4.215E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>36081</v>
       </c>
@@ -5554,7 +5556,7 @@
         <v>4.2050000000000004E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>36082</v>
       </c>
@@ -5578,7 +5580,7 @@
         <v>4.2050000000000004E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>36083</v>
       </c>
@@ -5602,7 +5604,7 @@
         <v>4.2050000000000004E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>36084</v>
       </c>
@@ -5626,7 +5628,7 @@
         <v>4.165E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>36087</v>
       </c>
@@ -5650,7 +5652,7 @@
         <v>4.165E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>36088</v>
       </c>
@@ -5674,7 +5676,7 @@
         <v>4.1550000000000004E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>36089</v>
       </c>
@@ -5698,7 +5700,7 @@
         <v>4.1449999999999994E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>36090</v>
       </c>
@@ -5722,7 +5724,7 @@
         <v>4.1550000000000004E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>36091</v>
       </c>
@@ -5746,7 +5748,7 @@
         <v>4.1149999999999999E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>36094</v>
       </c>
@@ -5770,7 +5772,7 @@
         <v>4.095E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>36095</v>
       </c>
@@ -5794,7 +5796,7 @@
         <v>4.095E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>36096</v>
       </c>
@@ -5818,7 +5820,7 @@
         <v>4.095E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>36097</v>
       </c>
@@ -5842,7 +5844,7 @@
         <v>4.045E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>36098</v>
       </c>
@@ -5866,7 +5868,7 @@
         <v>3.9449999999999999E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>36101</v>
       </c>
@@ -5890,7 +5892,7 @@
         <v>3.925E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>36102</v>
       </c>
@@ -5914,7 +5916,7 @@
         <v>3.8949999999999999E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>36103</v>
       </c>
@@ -5938,7 +5940,7 @@
         <v>3.8650000000000004E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>36104</v>
       </c>
@@ -5962,7 +5964,7 @@
         <v>3.8550000000000001E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>36105</v>
       </c>
@@ -5986,7 +5988,7 @@
         <v>3.8650000000000004E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>36108</v>
       </c>
@@ -6010,7 +6012,7 @@
         <v>3.8650000000000004E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>36109</v>
       </c>
@@ -6034,7 +6036,7 @@
         <v>3.875E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>36110</v>
       </c>
@@ -6058,7 +6060,7 @@
         <v>3.9149999999999997E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>36111</v>
       </c>
@@ -6082,7 +6084,7 @@
         <v>3.8550000000000001E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>36112</v>
       </c>
@@ -6106,7 +6108,7 @@
         <v>3.7949999999999998E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>36115</v>
       </c>
@@ -6130,7 +6132,7 @@
         <v>3.7749999999999999E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>36116</v>
       </c>
@@ -6154,7 +6156,7 @@
         <v>3.7949999999999998E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>36117</v>
       </c>
@@ -6178,7 +6180,7 @@
         <v>3.8249999999999999E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>36118</v>
       </c>
@@ -6202,7 +6204,7 @@
         <v>3.805E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>36119</v>
       </c>
@@ -6226,7 +6228,7 @@
         <v>3.7949999999999998E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>36122</v>
       </c>
@@ -6250,7 +6252,7 @@
         <v>3.7850000000000002E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>36123</v>
       </c>
@@ -6274,7 +6276,7 @@
         <v>3.7350000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>36124</v>
       </c>
@@ -6298,7 +6300,7 @@
         <v>3.7149999999999996E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>36125</v>
       </c>
@@ -6322,7 +6324,7 @@
         <v>3.6850000000000001E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>36126</v>
       </c>
@@ -6346,7 +6348,7 @@
         <v>3.6549999999999999E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>36129</v>
       </c>
@@ -6370,7 +6372,7 @@
         <v>3.6650000000000002E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>36130</v>
       </c>
@@ -6394,7 +6396,7 @@
         <v>3.6650000000000002E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>36131</v>
       </c>
@@ -6418,7 +6420,7 @@
         <v>3.5549999999999998E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>36132</v>
       </c>
@@ -6442,7 +6444,7 @@
         <v>3.4750000000000003E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>36133</v>
       </c>
@@ -6466,7 +6468,7 @@
         <v>3.4750000000000003E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>36136</v>
       </c>
@@ -6490,7 +6492,7 @@
         <v>3.4849999999999999E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>36137</v>
       </c>
@@ -6514,7 +6516,7 @@
         <v>3.4750000000000003E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>36138</v>
       </c>
@@ -6538,7 +6540,7 @@
         <v>3.4549999999999997E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>36139</v>
       </c>
@@ -6562,7 +6564,7 @@
         <v>3.4349999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>36140</v>
       </c>
@@ -6586,7 +6588,7 @@
         <v>3.415E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>36143</v>
       </c>
@@ -6610,7 +6612,7 @@
         <v>3.4049999999999997E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>36144</v>
       </c>
@@ -6634,7 +6636,7 @@
         <v>3.415E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>36145</v>
       </c>
@@ -6658,7 +6660,7 @@
         <v>3.415E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>36146</v>
       </c>
@@ -6682,7 +6684,7 @@
         <v>3.3849999999999998E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>36147</v>
       </c>
@@ -6706,7 +6708,7 @@
         <v>3.3750000000000002E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>36150</v>
       </c>
@@ -6730,7 +6732,7 @@
         <v>3.3849999999999998E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>36152</v>
       </c>
@@ -6754,7 +6756,7 @@
         <v>3.3950000000000001E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>36157</v>
       </c>
@@ -6778,7 +6780,7 @@
         <v>3.415E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>36158</v>
       </c>
@@ -6802,7 +6804,7 @@
         <v>3.3649999999999999E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>36159</v>
       </c>
@@ -6826,7 +6828,7 @@
         <v>3.3549999999999996E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>36164</v>
       </c>
@@ -6850,7 +6852,7 @@
         <v>3.3050000000000003E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>36165</v>
       </c>
@@ -6874,7 +6876,7 @@
         <v>3.3050000000000003E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>36167</v>
       </c>
@@ -6898,7 +6900,7 @@
         <v>3.3050000000000003E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>36168</v>
       </c>
@@ -6922,7 +6924,7 @@
         <v>3.295E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>36171</v>
       </c>
@@ -6946,7 +6948,7 @@
         <v>3.295E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>36172</v>
       </c>
@@ -6970,7 +6972,7 @@
         <v>3.3149999999999999E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>36173</v>
       </c>
@@ -6994,7 +6996,7 @@
         <v>3.2649999999999998E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>36174</v>
       </c>
@@ -7018,7 +7020,7 @@
         <v>3.2649999999999998E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>36175</v>
       </c>
@@ -7042,7 +7044,7 @@
         <v>3.245E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>36178</v>
       </c>
@@ -7066,7 +7068,7 @@
         <v>3.2149999999999998E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>36179</v>
       </c>
@@ -7090,7 +7092,7 @@
         <v>3.2149999999999998E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>36180</v>
       </c>
@@ -7114,7 +7116,7 @@
         <v>3.2349999999999997E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>36181</v>
       </c>
@@ -7138,7 +7140,7 @@
         <v>3.2250000000000001E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>36182</v>
       </c>
@@ -7162,7 +7164,7 @@
         <v>3.2250000000000001E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>36185</v>
       </c>
@@ -7186,7 +7188,7 @@
         <v>3.2250000000000001E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>36186</v>
       </c>
@@ -7210,7 +7212,7 @@
         <v>3.2250000000000001E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>36187</v>
       </c>
@@ -7234,7 +7236,7 @@
         <v>3.2250000000000001E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>36188</v>
       </c>
@@ -7258,7 +7260,7 @@
         <v>3.1850000000000003E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>36189</v>
       </c>
@@ -7282,7 +7284,7 @@
         <v>3.1949999999999999E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>36192</v>
       </c>
@@ -7306,7 +7308,7 @@
         <v>3.2050000000000002E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>36193</v>
       </c>
@@ -7330,7 +7332,7 @@
         <v>3.2050000000000002E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>36194</v>
       </c>
@@ -7354,7 +7356,7 @@
         <v>3.1949999999999999E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>36195</v>
       </c>
@@ -7378,7 +7380,7 @@
         <v>3.1949999999999999E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>36196</v>
       </c>
@@ -7402,7 +7404,7 @@
         <v>3.175E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>36199</v>
       </c>
@@ -7426,7 +7428,7 @@
         <v>3.1549999999999995E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>36200</v>
       </c>
@@ -7450,7 +7452,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>36201</v>
       </c>
@@ -7474,7 +7476,7 @@
         <v>3.1150000000000001E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>36202</v>
       </c>
@@ -7498,7 +7500,7 @@
         <v>3.1449999999999999E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>36203</v>
       </c>
@@ -7522,7 +7524,7 @@
         <v>3.0750000000000003E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>36206</v>
       </c>
@@ -7546,7 +7548,7 @@
         <v>3.0550000000000001E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>36207</v>
       </c>
@@ -7570,7 +7572,7 @@
         <v>3.0449999999999998E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>36208</v>
       </c>
@@ -7594,7 +7596,7 @@
         <v>3.0449999999999998E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>36209</v>
       </c>
@@ -7618,7 +7620,7 @@
         <v>3.0449999999999998E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>36210</v>
       </c>
@@ -7642,7 +7644,7 @@
         <v>3.0449999999999998E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>36213</v>
       </c>
@@ -7666,7 +7668,7 @@
         <v>3.0449999999999998E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>36214</v>
       </c>
@@ -7690,7 +7692,7 @@
         <v>3.0550000000000001E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>36215</v>
       </c>
@@ -7714,7 +7716,7 @@
         <v>3.0750000000000003E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>36216</v>
       </c>
@@ -7738,7 +7740,7 @@
         <v>3.1549999999999995E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>36217</v>
       </c>
@@ -7762,7 +7764,7 @@
         <v>3.175E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>36220</v>
       </c>
@@ -7786,7 +7788,7 @@
         <v>3.1949999999999999E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>36221</v>
       </c>
@@ -7810,7 +7812,7 @@
         <v>3.1850000000000003E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>36222</v>
       </c>
@@ -7834,7 +7836,7 @@
         <v>3.1949999999999999E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>36223</v>
       </c>
@@ -7858,7 +7860,7 @@
         <v>3.2400000000000005E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>36224</v>
       </c>
@@ -7882,7 +7884,7 @@
         <v>3.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>36227</v>
       </c>
@@ -7906,7 +7908,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>36228</v>
       </c>
@@ -7930,7 +7932,7 @@
         <v>3.2250000000000001E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>36229</v>
       </c>
@@ -7954,7 +7956,7 @@
         <v>3.2199999999999999E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>36230</v>
       </c>
@@ -7978,7 +7980,7 @@
         <v>3.2300000000000002E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>36231</v>
       </c>
@@ -8002,7 +8004,7 @@
         <v>3.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>36234</v>
       </c>
@@ -8026,7 +8028,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>36236</v>
       </c>
@@ -8050,7 +8052,7 @@
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>36237</v>
       </c>
@@ -8074,7 +8076,7 @@
         <v>3.1300000000000001E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>36238</v>
       </c>
@@ -8098,7 +8100,7 @@
         <v>3.1400000000000004E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>36242</v>
       </c>
@@ -8122,7 +8124,7 @@
         <v>3.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>36243</v>
       </c>
@@ -8146,7 +8148,7 @@
         <v>3.065E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>36244</v>
       </c>
@@ -8170,7 +8172,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>36245</v>
       </c>
@@ -8194,7 +8196,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>36248</v>
       </c>
@@ -8218,7 +8220,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>36249</v>
       </c>
@@ -8242,7 +8244,7 @@
         <v>2.9049999999999999E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>36250</v>
       </c>
@@ -8266,7 +8268,7 @@
         <v>2.8900000000000002E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>36251</v>
       </c>
@@ -8290,7 +8292,7 @@
         <v>2.8900000000000002E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>36256</v>
       </c>
@@ -8314,7 +8316,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>36257</v>
       </c>
@@ -8338,7 +8340,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>36258</v>
       </c>
@@ -8362,7 +8364,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>36259</v>
       </c>
@@ -8386,7 +8388,7 @@
         <v>2.8149999999999998E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>36262</v>
       </c>
@@ -8410,7 +8412,7 @@
         <v>2.8399999999999998E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>36263</v>
       </c>
@@ -8434,7 +8436,7 @@
         <v>2.87E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>36264</v>
       </c>
@@ -8458,7 +8460,7 @@
         <v>2.8750000000000001E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>36265</v>
       </c>
@@ -8482,7 +8484,7 @@
         <v>2.87E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>36266</v>
       </c>
@@ -8506,7 +8508,7 @@
         <v>2.895E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>36269</v>
       </c>
@@ -8530,7 +8532,7 @@
         <v>2.87E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>36270</v>
       </c>
@@ -8554,7 +8556,7 @@
         <v>2.8300000000000002E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>36271</v>
       </c>
@@ -8578,7 +8580,7 @@
         <v>2.8199999999999999E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>36272</v>
       </c>
@@ -8602,7 +8604,7 @@
         <v>2.8399999999999998E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>36276</v>
       </c>
@@ -8626,7 +8628,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>36277</v>
       </c>
@@ -8650,7 +8652,7 @@
         <v>2.8999999999999998E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>36278</v>
       </c>
@@ -8674,7 +8676,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>36279</v>
       </c>
@@ -8698,7 +8700,7 @@
         <v>2.895E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>36280</v>
       </c>
@@ -8722,7 +8724,7 @@
         <v>2.8399999999999998E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>36283</v>
       </c>
@@ -8746,7 +8748,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>36284</v>
       </c>
@@ -8770,7 +8772,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>36285</v>
       </c>
@@ -8794,7 +8796,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>36286</v>
       </c>
@@ -8818,7 +8820,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>36287</v>
       </c>
@@ -8842,7 +8844,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>36290</v>
       </c>
@@ -8866,7 +8868,7 @@
         <v>2.9249999999999998E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>36291</v>
       </c>
@@ -8890,7 +8892,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>36292</v>
       </c>
@@ -8914,7 +8916,7 @@
         <v>2.8999999999999998E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>36294</v>
       </c>
@@ -8938,7 +8940,7 @@
         <v>2.8999999999999998E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>36297</v>
       </c>
@@ -8962,7 +8964,7 @@
         <v>2.8999999999999998E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>36298</v>
       </c>
@@ -8986,7 +8988,7 @@
         <v>2.8900000000000002E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>36299</v>
       </c>
@@ -9010,7 +9012,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>36300</v>
       </c>
@@ -9034,7 +9036,7 @@
         <v>2.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>36301</v>
       </c>
@@ -9058,7 +9060,7 @@
         <v>2.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>36305</v>
       </c>
@@ -9082,7 +9084,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>36306</v>
       </c>
@@ -9106,7 +9108,7 @@
         <v>2.98E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>36307</v>
       </c>
@@ -9130,7 +9132,7 @@
         <v>2.955E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>36308</v>
       </c>
@@ -9154,7 +9156,7 @@
         <v>2.98E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>36311</v>
       </c>
@@ -9178,7 +9180,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>36312</v>
       </c>
@@ -9202,7 +9204,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>36313</v>
       </c>
@@ -9226,7 +9228,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>36314</v>
       </c>
@@ -9250,7 +9252,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>36315</v>
       </c>
@@ -9274,7 +9276,7 @@
         <v>2.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>36318</v>
       </c>
@@ -9298,7 +9300,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>36319</v>
       </c>
@@ -9322,7 +9324,7 @@
         <v>2.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>36320</v>
       </c>
@@ -9346,7 +9348,7 @@
         <v>2.98E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>36321</v>
       </c>
@@ -9370,7 +9372,7 @@
         <v>2.9750000000000002E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>36322</v>
       </c>
@@ -9394,7 +9396,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>36325</v>
       </c>
@@ -9418,7 +9420,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>36326</v>
       </c>
@@ -9442,7 +9444,7 @@
         <v>2.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>36327</v>
       </c>
@@ -9466,7 +9468,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>36328</v>
       </c>
@@ -9490,7 +9492,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>36329</v>
       </c>
@@ -9514,7 +9516,7 @@
         <v>2.9600000000000001E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>36332</v>
       </c>
@@ -9538,7 +9540,7 @@
         <v>2.9249999999999998E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>36333</v>
       </c>
@@ -9562,7 +9564,7 @@
         <v>2.9300000000000003E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>36334</v>
       </c>
@@ -9586,7 +9588,7 @@
         <v>2.9300000000000003E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>36335</v>
       </c>
@@ -9610,7 +9612,7 @@
         <v>2.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>36339</v>
       </c>
@@ -9634,7 +9636,7 @@
         <v>2.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>36340</v>
       </c>
@@ -9658,7 +9660,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>36341</v>
       </c>
@@ -9682,7 +9684,7 @@
         <v>2.9249999999999998E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>36342</v>
       </c>
@@ -9706,7 +9708,7 @@
         <v>2.98E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>36343</v>
       </c>
@@ -9730,7 +9732,7 @@
         <v>2.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>36346</v>
       </c>
@@ -9754,7 +9756,7 @@
         <v>2.9249999999999998E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>36347</v>
       </c>
@@ -9778,7 +9780,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>36348</v>
       </c>
@@ -9802,7 +9804,7 @@
         <v>3.0600000000000002E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>36349</v>
       </c>
@@ -9826,7 +9828,7 @@
         <v>3.005E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>36350</v>
       </c>
@@ -9850,7 +9852,7 @@
         <v>2.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>36353</v>
       </c>
@@ -9874,7 +9876,7 @@
         <v>3.0299999999999997E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>36354</v>
       </c>
@@ -9898,7 +9900,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>36355</v>
       </c>
@@ -9922,7 +9924,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>36356</v>
       </c>
@@ -9946,7 +9948,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>36357</v>
       </c>
@@ -9970,7 +9972,7 @@
         <v>2.9849999999999998E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>36360</v>
       </c>
@@ -9994,7 +9996,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>36361</v>
       </c>
@@ -10018,7 +10020,7 @@
         <v>3.0099999999999998E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>36362</v>
       </c>
@@ -10042,7 +10044,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>36363</v>
       </c>
@@ -10066,7 +10068,7 @@
         <v>2.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>36364</v>
       </c>
@@ -10090,7 +10092,7 @@
         <v>3.0099999999999998E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>36367</v>
       </c>
@@ -10114,7 +10116,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>36368</v>
       </c>
@@ -10138,7 +10140,7 @@
         <v>3.0299999999999997E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>36369</v>
       </c>
@@ -10162,7 +10164,7 @@
         <v>3.0099999999999998E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>36370</v>
       </c>
@@ -10186,7 +10188,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>36371</v>
       </c>
@@ -10210,7 +10212,7 @@
         <v>2.98E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>36374</v>
       </c>
@@ -10234,7 +10236,7 @@
         <v>2.9849999999999998E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>36375</v>
       </c>
@@ -10258,7 +10260,7 @@
         <v>2.98E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>36376</v>
       </c>
@@ -10282,7 +10284,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>36377</v>
       </c>
@@ -10306,7 +10308,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>36378</v>
       </c>
@@ -10330,7 +10332,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>36381</v>
       </c>
@@ -10354,7 +10356,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>36382</v>
       </c>
@@ -10378,7 +10380,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>36383</v>
       </c>
@@ -10402,7 +10404,7 @@
         <v>3.015E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>36384</v>
       </c>
@@ -10426,7 +10428,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>36385</v>
       </c>
@@ -10450,7 +10452,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>36388</v>
       </c>
@@ -10474,7 +10476,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>36389</v>
       </c>
@@ -10498,7 +10500,7 @@
         <v>2.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>36390</v>
       </c>
@@ -10522,7 +10524,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>36391</v>
       </c>
@@ -10546,7 +10548,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>36392</v>
       </c>
@@ -10570,7 +10572,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>36395</v>
       </c>
@@ -10594,7 +10596,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>36396</v>
       </c>
@@ -10618,7 +10620,7 @@
         <v>3.04E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>36397</v>
       </c>
@@ -10642,7 +10644,7 @@
         <v>3.04E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>36398</v>
       </c>
@@ -10666,7 +10668,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>36399</v>
       </c>
@@ -10690,7 +10692,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>36402</v>
       </c>
@@ -10714,7 +10716,7 @@
         <v>3.0550000000000001E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>36403</v>
       </c>
@@ -10738,7 +10740,7 @@
         <v>3.0299999999999997E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>36404</v>
       </c>
@@ -10762,7 +10764,7 @@
         <v>2.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>36405</v>
       </c>
@@ -10786,7 +10788,7 @@
         <v>2.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>36406</v>
       </c>
@@ -10810,7 +10812,7 @@
         <v>2.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>36409</v>
       </c>
@@ -10834,7 +10836,7 @@
         <v>2.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>36410</v>
       </c>
@@ -10858,7 +10860,7 @@
         <v>2.98E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>36411</v>
       </c>
@@ -10882,7 +10884,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>36412</v>
       </c>
@@ -10906,7 +10908,7 @@
         <v>2.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>36413</v>
       </c>
@@ -10930,7 +10932,7 @@
         <v>2.98E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>36416</v>
       </c>
@@ -10954,7 +10956,7 @@
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>36417</v>
       </c>
@@ -10978,7 +10980,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>36418</v>
       </c>
@@ -11002,7 +11004,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>36419</v>
       </c>
@@ -11026,7 +11028,7 @@
         <v>2.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>36420</v>
       </c>
@@ -11050,7 +11052,7 @@
         <v>2.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>36423</v>
       </c>
@@ -11074,7 +11076,7 @@
         <v>2.9900000000000003E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>36424</v>
       </c>
@@ -11098,7 +11100,7 @@
         <v>3.1200000000000002E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>36425</v>
       </c>
@@ -11122,7 +11124,7 @@
         <v>3.1400000000000004E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>36426</v>
       </c>
@@ -11146,7 +11148,7 @@
         <v>3.1300000000000001E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>36427</v>
       </c>
@@ -11170,7 +11172,7 @@
         <v>3.1300000000000001E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>36430</v>
       </c>
@@ -11194,7 +11196,7 @@
         <v>3.1400000000000004E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>36431</v>
       </c>
@@ -11218,7 +11220,7 @@
         <v>3.1099999999999999E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>36432</v>
       </c>
@@ -11242,7 +11244,7 @@
         <v>3.2400000000000005E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>36433</v>
       </c>
@@ -11266,7 +11268,7 @@
         <v>3.2400000000000005E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>36434</v>
       </c>
@@ -11290,7 +11292,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>36437</v>
       </c>
@@ -11314,7 +11316,7 @@
         <v>3.3300000000000003E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>36438</v>
       </c>
@@ -11338,7 +11340,7 @@
         <v>3.32E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>36439</v>
       </c>
@@ -11362,7 +11364,7 @@
         <v>3.2199999999999999E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>36440</v>
       </c>
@@ -11386,7 +11388,7 @@
         <v>3.2199999999999999E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>36441</v>
       </c>
@@ -11410,7 +11412,7 @@
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>36444</v>
       </c>
@@ -11434,7 +11436,7 @@
         <v>3.1600000000000003E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>36445</v>
       </c>
@@ -11458,7 +11460,7 @@
         <v>3.2199999999999999E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>36446</v>
       </c>
@@ -11482,7 +11484,7 @@
         <v>3.2300000000000002E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>36447</v>
       </c>
@@ -11506,7 +11508,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>36448</v>
       </c>
@@ -11530,7 +11532,7 @@
         <v>3.2400000000000005E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>36451</v>
       </c>
@@ -11554,7 +11556,7 @@
         <v>3.2300000000000002E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>36452</v>
       </c>
@@ -11578,7 +11580,7 @@
         <v>3.15E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>36453</v>
       </c>
@@ -11602,7 +11604,7 @@
         <v>3.2300000000000002E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>36454</v>
       </c>
@@ -11626,7 +11628,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>36455</v>
       </c>
@@ -11650,7 +11652,7 @@
         <v>3.1899999999999998E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>36458</v>
       </c>
@@ -11674,7 +11676,7 @@
         <v>3.2199999999999999E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>36459</v>
       </c>
@@ -11698,7 +11700,7 @@
         <v>3.2199999999999999E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>36460</v>
       </c>
@@ -11722,7 +11724,7 @@
         <v>3.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>36461</v>
       </c>
@@ -11746,7 +11748,7 @@
         <v>3.2599999999999997E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>36462</v>
       </c>
@@ -11770,7 +11772,7 @@
         <v>3.2799999999999996E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>36465</v>
       </c>
@@ -11794,7 +11796,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>36466</v>
       </c>
@@ -11818,7 +11820,7 @@
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>36467</v>
       </c>
@@ -11842,7 +11844,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>36468</v>
       </c>
@@ -11866,7 +11868,7 @@
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>36469</v>
       </c>
@@ -11890,7 +11892,7 @@
         <v>3.3649999999999999E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>36472</v>
       </c>
@@ -11914,7 +11916,7 @@
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>36473</v>
       </c>
@@ -11938,7 +11940,7 @@
         <v>3.39E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>36474</v>
       </c>
@@ -11962,7 +11964,7 @@
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>36475</v>
       </c>
@@ -11986,7 +11988,7 @@
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>36476</v>
       </c>
@@ -12010,7 +12012,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>36479</v>
       </c>
@@ -12034,7 +12036,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>36480</v>
       </c>
@@ -12058,7 +12060,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>36481</v>
       </c>
@@ -12082,7 +12084,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>36482</v>
       </c>
@@ -12106,7 +12108,7 @@
         <v>3.4200000000000001E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>36483</v>
       </c>
@@ -12130,7 +12132,7 @@
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>36486</v>
       </c>
@@ -12154,7 +12156,7 @@
         <v>3.4099999999999998E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>36487</v>
       </c>
@@ -12178,7 +12180,7 @@
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>36488</v>
       </c>
@@ -12202,7 +12204,7 @@
         <v>3.39E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>36489</v>
       </c>
@@ -12226,7 +12228,7 @@
         <v>3.39E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>36490</v>
       </c>
@@ -12250,7 +12252,7 @@
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>36493</v>
       </c>
@@ -12274,7 +12276,7 @@
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>36494</v>
       </c>
@@ -12298,7 +12300,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>36495</v>
       </c>
@@ -12322,7 +12324,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>36496</v>
       </c>
@@ -12346,7 +12348,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>36497</v>
       </c>
@@ -12370,7 +12372,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>36500</v>
       </c>
@@ -12394,7 +12396,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>36501</v>
       </c>
@@ -12418,7 +12420,7 @@
         <v>3.39E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>36502</v>
       </c>
@@ -12442,7 +12444,7 @@
         <v>3.39E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>36503</v>
       </c>
@@ -12466,7 +12468,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>36504</v>
       </c>
@@ -12490,7 +12492,7 @@
         <v>3.39E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>36507</v>
       </c>
@@ -12514,7 +12516,7 @@
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>36508</v>
       </c>
@@ -12538,7 +12540,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>36509</v>
       </c>
@@ -12562,7 +12564,7 @@
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>36510</v>
       </c>
@@ -12586,7 +12588,7 @@
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>36511</v>
       </c>
@@ -12610,7 +12612,7 @@
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>36514</v>
       </c>
@@ -12634,7 +12636,7 @@
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>36515</v>
       </c>
@@ -12658,7 +12660,7 @@
         <v>3.4300000000000004E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>36516</v>
       </c>
@@ -12682,7 +12684,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>36517</v>
       </c>
@@ -12706,7 +12708,7 @@
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>36521</v>
       </c>
@@ -12730,7 +12732,7 @@
         <v>3.4300000000000004E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>36522</v>
       </c>
@@ -12754,7 +12756,7 @@
         <v>3.44E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>36523</v>
       </c>
@@ -12778,7 +12780,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>36524</v>
       </c>
@@ -12802,7 +12804,7 @@
         <v>3.5099999999999999E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>36528</v>
       </c>
@@ -12826,7 +12828,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>36529</v>
       </c>
@@ -12850,7 +12852,7 @@
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>36530</v>
       </c>
@@ -12874,7 +12876,7 @@
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>36532</v>
       </c>
@@ -12898,7 +12900,7 @@
         <v>3.5200000000000002E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>36535</v>
       </c>
@@ -12922,7 +12924,7 @@
         <v>3.5200000000000002E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>36536</v>
       </c>
@@ -12946,7 +12948,7 @@
         <v>3.5299999999999998E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>36537</v>
       </c>
@@ -12970,7 +12972,7 @@
         <v>3.5200000000000002E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>36538</v>
       </c>
@@ -12994,7 +12996,7 @@
         <v>3.5150000000000001E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>36539</v>
       </c>
@@ -13018,7 +13020,7 @@
         <v>3.5299999999999998E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>36542</v>
       </c>
@@ -13042,7 +13044,7 @@
         <v>3.5099999999999999E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>36543</v>
       </c>
@@ -13066,7 +13068,7 @@
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>36544</v>
       </c>
@@ -13090,7 +13092,7 @@
         <v>3.5650000000000001E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>36545</v>
       </c>
@@ -13114,7 +13116,7 @@
         <v>3.56E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>36546</v>
       </c>
@@ -13138,7 +13140,7 @@
         <v>3.5699999999999996E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>36549</v>
       </c>
@@ -13162,7 +13164,7 @@
         <v>3.5699999999999996E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>36550</v>
       </c>
@@ -13186,7 +13188,7 @@
         <v>3.6000000000000004E-2</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>36551</v>
       </c>
@@ -13210,7 +13212,7 @@
         <v>3.6299999999999999E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>36552</v>
       </c>
@@ -13234,7 +13236,7 @@
         <v>3.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>36553</v>
       </c>
@@ -13258,7 +13260,7 @@
         <v>3.6450000000000003E-2</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>36556</v>
       </c>
@@ -13282,7 +13284,7 @@
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>36557</v>
       </c>
@@ -13306,7 +13308,7 @@
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>36558</v>
       </c>
@@ -13330,7 +13332,7 @@
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>36559</v>
       </c>
@@ -13354,7 +13356,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>36560</v>
       </c>
@@ -13378,7 +13380,7 @@
         <v>3.8900000000000004E-2</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>36563</v>
       </c>
@@ -13402,7 +13404,7 @@
         <v>3.925E-2</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>36564</v>
       </c>
@@ -13426,7 +13428,7 @@
         <v>3.9100000000000003E-2</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>36565</v>
       </c>
@@ -13450,7 +13452,7 @@
         <v>3.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>36566</v>
       </c>
@@ -13474,7 +13476,7 @@
         <v>3.8650000000000004E-2</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>36567</v>
       </c>
@@ -13498,7 +13500,7 @@
         <v>3.85E-2</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>36570</v>
       </c>
@@ -13522,7 +13524,7 @@
         <v>3.8300000000000001E-2</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>36571</v>
       </c>
@@ -13546,7 +13548,7 @@
         <v>3.8450000000000005E-2</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>36572</v>
       </c>
@@ -13570,7 +13572,7 @@
         <v>3.8599999999999995E-2</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>36573</v>
       </c>
@@ -13594,7 +13596,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>36574</v>
       </c>
@@ -13618,7 +13620,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>36577</v>
       </c>
@@ -13642,7 +13644,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>36578</v>
       </c>
@@ -13666,7 +13668,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>36579</v>
       </c>
@@ -13690,7 +13692,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>36580</v>
       </c>
@@ -13714,7 +13716,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>36581</v>
       </c>
@@ -13738,7 +13740,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>36584</v>
       </c>
@@ -13762,7 +13764,7 @@
         <v>4.0050000000000002E-2</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>36585</v>
       </c>
@@ -13786,7 +13788,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>36586</v>
       </c>
@@ -13810,7 +13812,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>36587</v>
       </c>
@@ -13834,7 +13836,7 @@
         <v>4.0999999999999995E-2</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>36588</v>
       </c>
@@ -13858,7 +13860,7 @@
         <v>4.0899999999999999E-2</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>36591</v>
       </c>
@@ -13882,7 +13884,7 @@
         <v>4.0999999999999995E-2</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>36592</v>
       </c>
@@ -13906,7 +13908,7 @@
         <v>4.0999999999999995E-2</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>36593</v>
       </c>
@@ -13930,7 +13932,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>36594</v>
       </c>
@@ -13954,7 +13956,7 @@
         <v>4.0899999999999999E-2</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>36595</v>
       </c>
@@ -13978,7 +13980,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>36598</v>
       </c>
@@ -14002,7 +14004,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>36599</v>
       </c>
@@ -14026,7 +14028,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>36600</v>
       </c>
@@ -14050,7 +14052,7 @@
         <v>4.0999999999999995E-2</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>36601</v>
       </c>
@@ -14074,7 +14076,7 @@
         <v>4.0899999999999999E-2</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>36602</v>
       </c>
@@ -14098,7 +14100,7 @@
         <v>4.0999999999999995E-2</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>36605</v>
       </c>
@@ -14122,7 +14124,7 @@
         <v>4.0999999999999995E-2</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>36606</v>
       </c>
@@ -14146,7 +14148,7 @@
         <v>4.0999999999999995E-2</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>36607</v>
       </c>
@@ -14170,7 +14172,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>36608</v>
       </c>
@@ -14194,7 +14196,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>36609</v>
       </c>
@@ -14218,7 +14220,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>36612</v>
       </c>
@@ -14242,7 +14244,7 @@
         <v>4.0199999999999993E-2</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>36613</v>
       </c>
@@ -14266,7 +14268,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>36614</v>
       </c>
@@ -14290,7 +14292,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>36615</v>
       </c>
@@ -14314,7 +14316,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>36616</v>
       </c>
@@ -14338,7 +14340,7 @@
         <v>3.9900000000000005E-2</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>36619</v>
       </c>
@@ -14362,7 +14364,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>36621</v>
       </c>
@@ -14386,7 +14388,7 @@
         <v>3.9900000000000005E-2</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>36622</v>
       </c>
@@ -14410,7 +14412,7 @@
         <v>3.9900000000000005E-2</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>36623</v>
       </c>
@@ -14434,7 +14436,7 @@
         <v>3.9900000000000005E-2</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>36626</v>
       </c>
@@ -14458,7 +14460,7 @@
         <v>3.9900000000000005E-2</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>36627</v>
       </c>
@@ -14482,7 +14484,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>36628</v>
       </c>
@@ -14506,7 +14508,7 @@
         <v>3.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>36629</v>
       </c>
@@ -14530,7 +14532,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>36630</v>
       </c>
@@ -14554,7 +14556,7 @@
         <v>3.9900000000000005E-2</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>36633</v>
       </c>
@@ -14578,7 +14580,7 @@
         <v>3.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>36634</v>
       </c>
@@ -14602,7 +14604,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>36635</v>
       </c>
@@ -14626,7 +14628,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>36636</v>
       </c>
@@ -14650,7 +14652,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>36641</v>
       </c>
@@ -14674,7 +14676,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>36642</v>
       </c>
@@ -14698,7 +14700,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>36643</v>
       </c>
@@ -14722,7 +14724,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>36644</v>
       </c>
@@ -14746,7 +14748,7 @@
         <v>4.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>36648</v>
       </c>
@@ -14770,7 +14772,7 @@
         <v>4.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>36649</v>
       </c>
@@ -14794,7 +14796,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>36650</v>
       </c>
@@ -14818,7 +14820,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>36651</v>
       </c>
@@ -14842,7 +14844,7 @@
         <v>4.0199999999999993E-2</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>36654</v>
       </c>
@@ -14866,7 +14868,7 @@
         <v>4.0199999999999993E-2</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>36655</v>
       </c>
@@ -14890,7 +14892,7 @@
         <v>4.0199999999999993E-2</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>36656</v>
       </c>
@@ -14914,7 +14916,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>36657</v>
       </c>
@@ -14938,7 +14940,7 @@
         <v>3.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>36658</v>
       </c>
@@ -14962,7 +14964,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>36661</v>
       </c>
@@ -14986,7 +14988,7 @@
         <v>3.9100000000000003E-2</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>36662</v>
       </c>
@@ -15010,7 +15012,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>36663</v>
       </c>
@@ -15034,7 +15036,7 @@
         <v>3.9100000000000003E-2</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>36664</v>
       </c>
@@ -15058,7 +15060,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>36665</v>
       </c>
@@ -15082,7 +15084,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>36668</v>
       </c>
@@ -15106,7 +15108,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>36669</v>
       </c>
@@ -15130,7 +15132,7 @@
         <v>3.9100000000000003E-2</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>36670</v>
       </c>
@@ -15154,7 +15156,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>36671</v>
       </c>
@@ -15178,7 +15180,7 @@
         <v>3.8900000000000004E-2</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>36672</v>
       </c>
@@ -15202,7 +15204,7 @@
         <v>3.8900000000000004E-2</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>36675</v>
       </c>
@@ -15226,7 +15228,7 @@
         <v>3.8599999999999995E-2</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>36676</v>
       </c>
@@ -15250,7 +15252,7 @@
         <v>3.8599999999999995E-2</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>36677</v>
       </c>
@@ -15274,7 +15276,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>36679</v>
       </c>
@@ -15298,7 +15300,7 @@
         <v>3.9100000000000003E-2</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>36682</v>
       </c>
@@ -15322,7 +15324,7 @@
         <v>3.9100000000000003E-2</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>36683</v>
       </c>
@@ -15346,7 +15348,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>36684</v>
       </c>
@@ -15370,7 +15372,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>36685</v>
       </c>
@@ -15394,7 +15396,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>36686</v>
       </c>
@@ -15418,7 +15420,7 @@
         <v>3.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>36690</v>
       </c>
@@ -15442,7 +15444,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>36691</v>
       </c>
@@ -15466,7 +15468,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>36692</v>
       </c>
@@ -15490,7 +15492,7 @@
         <v>3.9100000000000003E-2</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>36693</v>
       </c>
@@ -15514,7 +15516,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>36696</v>
       </c>
@@ -15538,7 +15540,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>36697</v>
       </c>
@@ -15562,7 +15564,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>36698</v>
       </c>
@@ -15586,7 +15588,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>36699</v>
       </c>
@@ -15610,7 +15612,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>36703</v>
       </c>
@@ -15634,7 +15636,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>36704</v>
       </c>
@@ -15658,7 +15660,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>36705</v>
       </c>
@@ -15682,7 +15684,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>36706</v>
       </c>
@@ -15706,7 +15708,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>36707</v>
       </c>
@@ -15730,7 +15732,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>36710</v>
       </c>
@@ -15754,7 +15756,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>36711</v>
       </c>
@@ -15778,7 +15780,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>36712</v>
       </c>
@@ -15802,7 +15804,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>36713</v>
       </c>
@@ -15826,7 +15828,7 @@
         <v>4.0199999999999993E-2</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>36714</v>
       </c>
@@ -15850,7 +15852,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>36717</v>
       </c>
@@ -15874,7 +15876,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>36718</v>
       </c>
@@ -15898,7 +15900,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>36719</v>
       </c>
@@ -15922,7 +15924,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>36720</v>
       </c>
@@ -15946,7 +15948,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>36721</v>
       </c>
@@ -15970,7 +15972,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>36724</v>
       </c>
@@ -15994,7 +15996,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>36725</v>
       </c>
@@ -16018,7 +16020,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>36726</v>
       </c>
@@ -16042,7 +16044,7 @@
         <v>4.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>36727</v>
       </c>
@@ -16066,7 +16068,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>36728</v>
       </c>
@@ -16090,7 +16092,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>36731</v>
       </c>
@@ -16114,7 +16116,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>36732</v>
       </c>
@@ -16138,7 +16140,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>36733</v>
       </c>
@@ -16162,7 +16164,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>36734</v>
       </c>
@@ -16186,7 +16188,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>36735</v>
       </c>
@@ -16210,7 +16212,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>36738</v>
       </c>
@@ -16234,7 +16236,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>36739</v>
       </c>
@@ -16258,7 +16260,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>36740</v>
       </c>
@@ -16282,7 +16284,7 @@
         <v>4.045E-2</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>36741</v>
       </c>
@@ -16306,7 +16308,7 @@
         <v>4.045E-2</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>36742</v>
       </c>
@@ -16330,7 +16332,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>36745</v>
       </c>
@@ -16354,7 +16356,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>36746</v>
       </c>
@@ -16378,7 +16380,7 @@
         <v>4.0549999999999996E-2</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>36747</v>
       </c>
@@ -16402,7 +16404,7 @@
         <v>4.0549999999999996E-2</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>36748</v>
       </c>
@@ -16426,7 +16428,7 @@
         <v>4.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>36749</v>
       </c>
@@ -16450,7 +16452,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>36752</v>
       </c>
@@ -16474,7 +16476,7 @@
         <v>4.0549999999999996E-2</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>36753</v>
       </c>
@@ -16498,7 +16500,7 @@
         <v>4.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>36754</v>
       </c>
@@ -16522,7 +16524,7 @@
         <v>4.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>36755</v>
       </c>
@@ -16546,7 +16548,7 @@
         <v>3.9149999999999997E-2</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>36756</v>
       </c>
@@ -16570,7 +16572,7 @@
         <v>3.9050000000000001E-2</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>36759</v>
       </c>
@@ -16594,7 +16596,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>36760</v>
       </c>
@@ -16618,7 +16620,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>36761</v>
       </c>
@@ -16642,7 +16644,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>36762</v>
       </c>
@@ -16666,7 +16668,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>36763</v>
       </c>
@@ -16690,7 +16692,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>36766</v>
       </c>
@@ -16714,7 +16716,7 @@
         <v>3.9900000000000005E-2</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>36767</v>
       </c>
@@ -16738,7 +16740,7 @@
         <v>3.8900000000000004E-2</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>36768</v>
       </c>
@@ -16762,7 +16764,7 @@
         <v>3.8900000000000004E-2</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>36769</v>
       </c>
@@ -16786,7 +16788,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>36770</v>
       </c>
@@ -16810,7 +16812,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>36773</v>
       </c>
@@ -16834,7 +16836,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>36774</v>
       </c>
@@ -16858,7 +16860,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>36775</v>
       </c>
@@ -16882,7 +16884,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>36776</v>
       </c>
@@ -16906,7 +16908,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>36777</v>
       </c>
@@ -16930,7 +16932,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>36780</v>
       </c>
@@ -16954,7 +16956,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>36781</v>
       </c>
@@ -16978,7 +16980,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>36782</v>
       </c>
@@ -17002,7 +17004,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>36783</v>
       </c>
@@ -17026,7 +17028,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>36784</v>
       </c>
@@ -17050,7 +17052,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>36787</v>
       </c>
@@ -17074,7 +17076,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>36788</v>
       </c>
@@ -17098,7 +17100,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>36789</v>
       </c>
@@ -17122,7 +17124,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>36790</v>
       </c>
@@ -17146,7 +17148,7 @@
         <v>3.9100000000000003E-2</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>36791</v>
       </c>
@@ -17170,7 +17172,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>36794</v>
       </c>
@@ -17194,7 +17196,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>36795</v>
       </c>
@@ -17218,7 +17220,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>36796</v>
       </c>
@@ -17242,7 +17244,7 @@
         <v>3.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>36797</v>
       </c>
@@ -17266,7 +17268,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>36798</v>
       </c>
@@ -17290,7 +17292,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>36801</v>
       </c>
@@ -17314,7 +17316,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>36802</v>
       </c>
@@ -17338,7 +17340,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>36803</v>
       </c>
@@ -17362,7 +17364,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>36804</v>
       </c>
@@ -17386,7 +17388,7 @@
         <v>4.0899999999999999E-2</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>36805</v>
       </c>
@@ -17410,7 +17412,7 @@
         <v>4.0899999999999999E-2</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>36808</v>
       </c>
@@ -17434,7 +17436,7 @@
         <v>4.0899999999999999E-2</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>36809</v>
       </c>
@@ -17458,7 +17460,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>36810</v>
       </c>
@@ -17482,7 +17484,7 @@
         <v>3.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>36811</v>
       </c>
@@ -17506,7 +17508,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>36812</v>
       </c>
@@ -17530,7 +17532,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>36815</v>
       </c>
@@ -17554,7 +17556,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>36816</v>
       </c>
@@ -17578,7 +17580,7 @@
         <v>3.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>36817</v>
       </c>
@@ -17602,7 +17604,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>36818</v>
       </c>
@@ -17626,7 +17628,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>36819</v>
       </c>
@@ -17650,7 +17652,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>36822</v>
       </c>
@@ -17674,7 +17676,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>36823</v>
       </c>
@@ -17698,7 +17700,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>36824</v>
       </c>
@@ -17722,7 +17724,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>36825</v>
       </c>
@@ -17746,7 +17748,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>36826</v>
       </c>
@@ -17770,7 +17772,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>36829</v>
       </c>
@@ -17794,7 +17796,7 @@
         <v>3.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>36830</v>
       </c>
@@ -17818,7 +17820,7 @@
         <v>3.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>36831</v>
       </c>
@@ -17842,7 +17844,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>36832</v>
       </c>
@@ -17866,7 +17868,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>36833</v>
       </c>
@@ -17890,7 +17892,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>36836</v>
       </c>
@@ -17914,7 +17916,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>36837</v>
       </c>
@@ -17938,7 +17940,7 @@
         <v>3.9300000000000002E-2</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>36838</v>
       </c>
@@ -17962,7 +17964,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>36839</v>
       </c>
@@ -17986,7 +17988,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>36840</v>
       </c>
@@ -18010,7 +18012,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>36843</v>
       </c>
@@ -18034,7 +18036,7 @@
         <v>3.9599999999999996E-2</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>36844</v>
       </c>
@@ -18058,7 +18060,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>36845</v>
       </c>
@@ -18082,7 +18084,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>36846</v>
       </c>
@@ -18106,7 +18108,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>36847</v>
       </c>
@@ -18130,7 +18132,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>36850</v>
       </c>
@@ -18154,7 +18156,7 @@
         <v>4.0199999999999993E-2</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>36851</v>
       </c>
@@ -18178,7 +18180,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>36852</v>
       </c>
@@ -18202,7 +18204,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>36853</v>
       </c>
@@ -18226,7 +18228,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>36854</v>
       </c>
@@ -18250,7 +18252,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>36857</v>
       </c>
@@ -18274,7 +18276,7 @@
         <v>4.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>36858</v>
       </c>
@@ -18298,7 +18300,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>36859</v>
       </c>
@@ -18322,7 +18324,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>36860</v>
       </c>
@@ -18346,7 +18348,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>36861</v>
       </c>
@@ -18370,7 +18372,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>36864</v>
       </c>
@@ -18394,7 +18396,7 @@
         <v>4.0899999999999999E-2</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>36865</v>
       </c>
@@ -18418,7 +18420,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>36866</v>
       </c>
@@ -18442,7 +18444,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>36867</v>
       </c>
@@ -18466,7 +18468,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>36868</v>
       </c>
@@ -18490,7 +18492,7 @@
         <v>4.0999999999999995E-2</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>36871</v>
       </c>
@@ -18514,7 +18516,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>36872</v>
       </c>
@@ -18538,7 +18540,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>36873</v>
       </c>
@@ -18562,7 +18564,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>36874</v>
       </c>
@@ -18586,7 +18588,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>36875</v>
       </c>
@@ -18610,7 +18612,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>36878</v>
       </c>
@@ -18634,7 +18636,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>36879</v>
       </c>
@@ -18658,7 +18660,7 @@
         <v>4.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>36880</v>
       </c>
@@ -18682,7 +18684,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>36881</v>
       </c>
@@ -18706,7 +18708,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>36882</v>
       </c>
@@ -18730,7 +18732,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>36887</v>
       </c>
@@ -18754,7 +18756,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>36888</v>
       </c>
@@ -18778,7 +18780,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>36889</v>
       </c>
@@ -18802,7 +18804,7 @@
         <v>4.0899999999999999E-2</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>36893</v>
       </c>
@@ -18826,7 +18828,7 @@
         <v>4.1200000000000001E-2</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>36894</v>
       </c>
@@ -18850,7 +18852,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>36895</v>
       </c>
@@ -18874,7 +18876,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>36896</v>
       </c>
@@ -18898,7 +18900,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>36899</v>
       </c>
@@ -18922,7 +18924,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>36900</v>
       </c>
@@ -18946,7 +18948,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>36901</v>
       </c>
@@ -18970,7 +18972,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>36902</v>
       </c>
@@ -18994,7 +18996,7 @@
         <v>4.0899999999999999E-2</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>36903</v>
       </c>
@@ -19018,7 +19020,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>36906</v>
       </c>
@@ -19042,7 +19044,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>36907</v>
       </c>
@@ -19066,7 +19068,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>36908</v>
       </c>
@@ -19090,7 +19092,7 @@
         <v>4.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>36909</v>
       </c>
@@ -19114,7 +19116,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>36910</v>
       </c>
@@ -19138,7 +19140,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>36913</v>
       </c>
@@ -19162,7 +19164,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>36914</v>
       </c>
@@ -19186,7 +19188,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>36916</v>
       </c>
@@ -19210,7 +19212,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>36917</v>
       </c>
@@ -19234,7 +19236,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>36920</v>
       </c>
@@ -19258,7 +19260,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>36921</v>
       </c>
@@ -19282,7 +19284,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>36922</v>
       </c>
@@ -19306,7 +19308,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>36923</v>
       </c>
@@ -19330,7 +19332,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>36924</v>
       </c>
@@ -19354,7 +19356,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>36927</v>
       </c>
@@ -19378,7 +19380,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>36928</v>
       </c>
@@ -19402,7 +19404,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>36929</v>
       </c>
@@ -19426,7 +19428,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>36930</v>
       </c>
@@ -19450,7 +19452,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>36931</v>
       </c>
@@ -19474,7 +19476,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>36934</v>
       </c>
@@ -19498,7 +19500,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>36935</v>
       </c>
@@ -19522,7 +19524,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>36936</v>
       </c>
@@ -19546,7 +19548,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>36937</v>
       </c>
@@ -19570,7 +19572,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>36938</v>
       </c>
@@ -19594,7 +19596,7 @@
         <v>3.9900000000000005E-2</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>36941</v>
       </c>
@@ -19618,7 +19620,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>36942</v>
       </c>
@@ -19642,7 +19644,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>36943</v>
       </c>
@@ -19666,7 +19668,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>36944</v>
       </c>
@@ -19690,7 +19692,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>36945</v>
       </c>
@@ -19714,7 +19716,7 @@
         <v>3.9900000000000005E-2</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>36948</v>
       </c>
@@ -19738,7 +19740,7 @@
         <v>3.9900000000000005E-2</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>36949</v>
       </c>
@@ -19762,7 +19764,7 @@
         <v>4.0999999999999995E-2</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>36950</v>
       </c>
@@ -19786,7 +19788,7 @@
         <v>4.1200000000000001E-2</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>36951</v>
       </c>
@@ -19810,7 +19812,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>36952</v>
       </c>
@@ -19834,7 +19836,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>36955</v>
       </c>
@@ -19858,7 +19860,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>36956</v>
       </c>
@@ -19882,7 +19884,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>36957</v>
       </c>
@@ -19906,7 +19908,7 @@
         <v>4.0999999999999995E-2</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>36958</v>
       </c>
@@ -19930,7 +19932,7 @@
         <v>4.1100000000000005E-2</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>36959</v>
       </c>
@@ -19954,7 +19956,7 @@
         <v>4.0999999999999995E-2</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>36962</v>
       </c>
@@ -19978,7 +19980,7 @@
         <v>4.0999999999999995E-2</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>36963</v>
       </c>
@@ -20002,7 +20004,7 @@
         <v>4.0999999999999995E-2</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>36964</v>
       </c>
@@ -20026,7 +20028,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>36965</v>
       </c>
@@ -20050,7 +20052,7 @@
         <v>4.0899999999999999E-2</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>36966</v>
       </c>
@@ -20074,7 +20076,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>36969</v>
       </c>
@@ -20098,7 +20100,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
         <v>36970</v>
       </c>
@@ -20122,7 +20124,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>36971</v>
       </c>
@@ -20146,7 +20148,7 @@
         <v>4.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>36972</v>
       </c>
@@ -20170,7 +20172,7 @@
         <v>4.0199999999999993E-2</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>36973</v>
       </c>
@@ -20194,7 +20196,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>36976</v>
       </c>
@@ -20218,7 +20220,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>36977</v>
       </c>
@@ -20242,7 +20244,7 @@
         <v>4.0199999999999993E-2</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
         <v>36978</v>
       </c>
@@ -20266,7 +20268,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>36979</v>
       </c>
@@ -20290,7 +20292,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>36980</v>
       </c>
@@ -20314,7 +20316,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>36983</v>
       </c>
@@ -20338,7 +20340,7 @@
         <v>3.8900000000000004E-2</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>36984</v>
       </c>
@@ -20362,7 +20364,7 @@
         <v>3.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>36985</v>
       </c>
@@ -20386,7 +20388,7 @@
         <v>3.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>36986</v>
       </c>
@@ -20410,7 +20412,7 @@
         <v>3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
         <v>36987</v>
       </c>
@@ -20434,7 +20436,7 @@
         <v>3.8599999999999995E-2</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>36990</v>
       </c>
@@ -20458,7 +20460,7 @@
         <v>3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
         <v>36991</v>
       </c>
@@ -20482,7 +20484,7 @@
         <v>3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
         <v>36992</v>
       </c>
@@ -20506,7 +20508,7 @@
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
         <v>36993</v>
       </c>
@@ -20530,7 +20532,7 @@
         <v>3.95E-2</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
         <v>36998</v>
       </c>
@@ -20554,7 +20556,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
         <v>36999</v>
       </c>
@@ -20578,7 +20580,7 @@
         <v>3.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
         <v>37000</v>
       </c>
@@ -20602,7 +20604,7 @@
         <v>4.0199999999999993E-2</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
         <v>37001</v>
       </c>
@@ -20626,7 +20628,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
         <v>37004</v>
       </c>
@@ -20650,7 +20652,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>37005</v>
       </c>
@@ -20674,7 +20676,7 @@
         <v>3.9900000000000005E-2</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
         <v>37006</v>
       </c>
@@ -20698,7 +20700,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>37007</v>
       </c>
@@ -20722,7 +20724,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>37008</v>
       </c>
@@ -20746,7 +20748,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>37011</v>
       </c>
@@ -20770,7 +20772,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
         <v>37013</v>
       </c>
@@ -20794,7 +20796,7 @@
         <v>4.0199999999999993E-2</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>37014</v>
       </c>
@@ -20818,7 +20820,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
         <v>37015</v>
       </c>
@@ -20842,7 +20844,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
         <v>37018</v>
       </c>
@@ -20866,7 +20868,7 @@
         <v>4.0199999999999993E-2</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
         <v>37019</v>
       </c>
@@ -20890,7 +20892,7 @@
         <v>4.0199999999999993E-2</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>37020</v>
       </c>
@@ -20914,7 +20916,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
         <v>37021</v>
       </c>
@@ -20938,7 +20940,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
         <v>37022</v>
       </c>
@@ -20962,7 +20964,7 @@
         <v>3.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
         <v>37025</v>
       </c>
@@ -20986,7 +20988,7 @@
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
         <v>37026</v>
       </c>
@@ -21010,7 +21012,7 @@
         <v>4.0199999999999993E-2</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
         <v>37027</v>
       </c>
@@ -21034,7 +21036,7 @@
         <v>3.9900000000000005E-2</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
         <v>37028</v>
       </c>
@@ -21058,7 +21060,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
         <v>37029</v>
       </c>
@@ -21082,7 +21084,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
         <v>37032</v>
       </c>
@@ -21106,7 +21108,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
         <v>37033</v>
       </c>
@@ -21130,7 +21132,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
         <v>37034</v>
       </c>
@@ -21154,7 +21156,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
         <v>37036</v>
       </c>
@@ -21178,7 +21180,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
         <v>37039</v>
       </c>
@@ -21202,7 +21204,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
         <v>37040</v>
       </c>
@@ -21226,7 +21228,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
         <v>37041</v>
       </c>
@@ -21250,7 +21252,7 @@
         <v>3.9900000000000005E-2</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
         <v>37042</v>
       </c>
@@ -21274,7 +21276,7 @@
         <v>4.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
         <v>37043</v>
       </c>
@@ -21298,7 +21300,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
         <v>37047</v>
       </c>
@@ -21322,7 +21324,7 @@
         <v>4.0199999999999993E-2</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
         <v>37048</v>
       </c>
@@ -21346,7 +21348,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
         <v>37049</v>
       </c>
@@ -21370,7 +21372,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
         <v>37050</v>
       </c>
@@ -21394,7 +21396,7 @@
         <v>4.0300000000000002E-2</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
         <v>37053</v>
       </c>
@@ -21418,7 +21420,7 @@
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
         <v>37054</v>
       </c>
@@ -21442,7 +21444,7 @@
         <v>4.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
         <v>37055</v>
       </c>
@@ -21466,7 +21468,7 @@
         <v>4.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
         <v>37056</v>
       </c>
@@ -21490,7 +21492,7 @@
         <v>4.07E-2</v>
       </c>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
         <v>37057</v>
       </c>
@@ -21514,7 +21516,7 @@
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
         <v>37060</v>
       </c>
@@ -21538,7 +21540,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
         <v>37061</v>
       </c>
@@ -21562,7 +21564,7 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
         <v>37062</v>
       </c>
@@ -21586,7 +21588,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
         <v>37063</v>
       </c>
@@ -21610,7 +21612,7 @@
         <v>4.2800000000000005E-2</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
         <v>37067</v>
       </c>
@@ -21634,7 +21636,7 @@
         <v>4.2800000000000005E-2</v>
       </c>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
         <v>37068</v>
       </c>
@@ -21658,7 +21660,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
         <v>37069</v>
       </c>
@@ -21682,7 +21684,7 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
         <v>37070</v>
       </c>
@@ -21706,7 +21708,7 @@
         <v>4.2800000000000005E-2</v>
       </c>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
         <v>37071</v>
       </c>
@@ -21730,7 +21732,7 @@
         <v>4.2800000000000005E-2</v>
       </c>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
         <v>37074</v>
       </c>
@@ -21754,7 +21756,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
         <v>37075</v>
       </c>
@@ -21778,7 +21780,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
         <v>37076</v>
       </c>
@@ -21802,7 +21804,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
         <v>37077</v>
       </c>
@@ -21826,7 +21828,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
         <v>37078</v>
       </c>
@@ -21850,7 +21852,7 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
         <v>37081</v>
       </c>
@@ -21874,7 +21876,7 @@
         <v>4.3299999999999998E-2</v>
       </c>
     </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
         <v>37082</v>
       </c>
@@ -21898,7 +21900,7 @@
         <v>4.3400000000000001E-2</v>
       </c>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
         <v>37083</v>
       </c>
@@ -21922,7 +21924,7 @@
         <v>4.3299999999999998E-2</v>
       </c>
     </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
         <v>37084</v>
       </c>
@@ -21946,7 +21948,7 @@
         <v>4.3299999999999998E-2</v>
       </c>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
         <v>37085</v>
       </c>
@@ -21970,7 +21972,7 @@
         <v>4.3299999999999998E-2</v>
       </c>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
         <v>37088</v>
       </c>
@@ -21994,7 +21996,7 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
         <v>37089</v>
       </c>
@@ -22018,7 +22020,7 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
         <v>37090</v>
       </c>
@@ -22042,7 +22044,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
         <v>37091</v>
       </c>
@@ -22066,7 +22068,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
         <v>37092</v>
       </c>
@@ -22090,7 +22092,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
         <v>37095</v>
       </c>
@@ -22114,7 +22116,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
         <v>37096</v>
       </c>
@@ -22138,7 +22140,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
         <v>37097</v>
       </c>
@@ -22162,7 +22164,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
         <v>37098</v>
       </c>
@@ -22186,7 +22188,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
         <v>37099</v>
       </c>
@@ -22210,7 +22212,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
         <v>37102</v>
       </c>
@@ -22234,7 +22236,7 @@
         <v>4.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
         <v>37103</v>
       </c>
@@ -22258,7 +22260,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
         <v>37104</v>
       </c>
@@ -22282,7 +22284,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
         <v>37105</v>
       </c>
@@ -22306,7 +22308,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
         <v>37106</v>
       </c>
@@ -22330,7 +22332,7 @@
         <v>4.2800000000000005E-2</v>
       </c>
     </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
         <v>37109</v>
       </c>
@@ -22354,7 +22356,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
         <v>37110</v>
       </c>
@@ -22378,7 +22380,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
         <v>37111</v>
       </c>
@@ -22402,7 +22404,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
         <v>37112</v>
       </c>
@@ -22426,7 +22428,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
         <v>37113</v>
       </c>
@@ -22450,7 +22452,7 @@
         <v>4.2950000000000002E-2</v>
       </c>
     </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
         <v>37116</v>
       </c>
@@ -22474,7 +22476,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
         <v>37117</v>
       </c>
@@ -22498,7 +22500,7 @@
         <v>4.2800000000000005E-2</v>
       </c>
     </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
         <v>37118</v>
       </c>
@@ -22522,7 +22524,7 @@
         <v>4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
         <v>37119</v>
       </c>
@@ -22546,7 +22548,7 @@
         <v>4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
         <v>37120</v>
       </c>
@@ -22570,7 +22572,7 @@
         <v>4.2500000000000003E-2</v>
       </c>
     </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
         <v>37123</v>
       </c>
@@ -22594,7 +22596,7 @@
         <v>4.2500000000000003E-2</v>
       </c>
     </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
         <v>37124</v>
       </c>
@@ -22618,7 +22620,7 @@
         <v>4.2699999999999995E-2</v>
       </c>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
         <v>37125</v>
       </c>
@@ -22642,7 +22644,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
         <v>37126</v>
       </c>
@@ -22666,7 +22668,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
         <v>37127</v>
       </c>
@@ -22690,7 +22692,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A910" s="1">
         <v>37130</v>
       </c>
@@ -22714,7 +22716,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A911" s="1">
         <v>37131</v>
       </c>
@@ -22738,7 +22740,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
         <v>37132</v>
       </c>
@@ -22762,7 +22764,7 @@
         <v>4.2800000000000005E-2</v>
       </c>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
         <v>37133</v>
       </c>
@@ -22786,7 +22788,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
         <v>37134</v>
       </c>
@@ -22810,7 +22812,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
         <v>37137</v>
       </c>
@@ -22834,7 +22836,7 @@
         <v>4.2800000000000005E-2</v>
       </c>
     </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A916" s="1">
         <v>37138</v>
       </c>
@@ -22858,7 +22860,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
         <v>37139</v>
       </c>
@@ -22882,7 +22884,7 @@
         <v>4.3299999999999998E-2</v>
       </c>
     </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
         <v>37140</v>
       </c>
@@ -22906,7 +22908,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A919" s="1">
         <v>37141</v>
       </c>
@@ -22930,7 +22932,7 @@
         <v>4.2699999999999995E-2</v>
       </c>
     </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
         <v>37144</v>
       </c>
@@ -22954,7 +22956,7 @@
         <v>4.2500000000000003E-2</v>
       </c>
     </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
         <v>37145</v>
       </c>
@@ -22978,7 +22980,7 @@
         <v>4.24E-2</v>
       </c>
     </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
         <v>37146</v>
       </c>
@@ -23002,7 +23004,7 @@
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
         <v>37147</v>
       </c>
@@ -23026,7 +23028,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
         <v>37148</v>
       </c>
@@ -23050,7 +23052,7 @@
         <v>4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A925" s="1">
         <v>37151</v>
       </c>
@@ -23074,7 +23076,7 @@
         <v>4.1299999999999996E-2</v>
       </c>
     </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A926" s="1">
         <v>37152</v>
       </c>
@@ -23098,7 +23100,7 @@
         <v>3.7599999999999995E-2</v>
       </c>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
         <v>37153</v>
       </c>
@@ -23122,7 +23124,7 @@
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A928" s="1">
         <v>37154</v>
       </c>
@@ -23146,7 +23148,7 @@
         <v>3.7200000000000004E-2</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
         <v>37155</v>
       </c>
@@ -23170,7 +23172,7 @@
         <v>3.7200000000000004E-2</v>
       </c>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
         <v>37158</v>
       </c>
@@ -23194,7 +23196,7 @@
         <v>3.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
         <v>37159</v>
       </c>
@@ -23218,7 +23220,7 @@
         <v>3.7200000000000004E-2</v>
       </c>
     </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A932" s="1">
         <v>37160</v>
       </c>
@@ -23242,7 +23244,7 @@
         <v>3.7200000000000004E-2</v>
       </c>
     </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A933" s="1">
         <v>37161</v>
       </c>
@@ -23266,7 +23268,7 @@
         <v>3.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A934" s="1">
         <v>37162</v>
       </c>
@@ -23290,7 +23292,7 @@
         <v>3.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A935" s="1">
         <v>37165</v>
       </c>
@@ -23314,7 +23316,7 @@
         <v>3.73E-2</v>
       </c>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A936" s="1">
         <v>37166</v>
       </c>
@@ -23338,7 +23340,7 @@
         <v>3.7200000000000004E-2</v>
       </c>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A937" s="1">
         <v>37167</v>
       </c>
@@ -23362,7 +23364,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A938" s="1">
         <v>37168</v>
       </c>
@@ -23386,7 +23388,7 @@
         <v>3.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A939" s="1">
         <v>37169</v>
       </c>
@@ -23410,7 +23412,7 @@
         <v>3.7000000000000005E-2</v>
       </c>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A940" s="1">
         <v>37172</v>
       </c>
@@ -23434,7 +23436,7 @@
         <v>3.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A941" s="1">
         <v>37173</v>
       </c>
@@ -23458,7 +23460,7 @@
         <v>3.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A942" s="1">
         <v>37174</v>
       </c>
@@ -23482,7 +23484,7 @@
         <v>3.7200000000000004E-2</v>
       </c>
     </row>
-    <row r="943" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A943" s="1">
         <v>37175</v>
       </c>
@@ -23506,7 +23508,7 @@
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
-    <row r="944" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A944" s="1">
         <v>37176</v>
       </c>
@@ -23530,7 +23532,7 @@
         <v>3.73E-2</v>
       </c>
     </row>
-    <row r="945" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A945" s="1">
         <v>37179</v>
       </c>
@@ -23554,7 +23556,7 @@
         <v>3.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="946" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A946" s="1">
         <v>37180</v>
       </c>
@@ -23578,7 +23580,7 @@
         <v>3.6699999999999997E-2</v>
       </c>
     </row>
-    <row r="947" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A947" s="1">
         <v>37181</v>
       </c>
@@ -23602,7 +23604,7 @@
         <v>3.7200000000000004E-2</v>
       </c>
     </row>
-    <row r="948" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A948" s="1">
         <v>37182</v>
       </c>
@@ -23626,7 +23628,7 @@
         <v>3.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="949" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A949" s="1">
         <v>37183</v>
       </c>
@@ -23650,7 +23652,7 @@
         <v>3.7000000000000005E-2</v>
       </c>
     </row>
-    <row r="950" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A950" s="1">
         <v>37186</v>
       </c>
@@ -23674,7 +23676,7 @@
         <v>3.7000000000000005E-2</v>
       </c>
     </row>
-    <row r="951" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A951" s="1">
         <v>37187</v>
       </c>
@@ -23698,7 +23700,7 @@
         <v>3.7000000000000005E-2</v>
       </c>
     </row>
-    <row r="952" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A952" s="1">
         <v>37188</v>
       </c>
@@ -23722,7 +23724,7 @@
         <v>3.6699999999999997E-2</v>
       </c>
     </row>
-    <row r="953" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A953" s="1">
         <v>37189</v>
       </c>
@@ -23746,7 +23748,7 @@
         <v>3.6600000000000001E-2</v>
       </c>
     </row>
-    <row r="954" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A954" s="1">
         <v>37190</v>
       </c>
@@ -23770,7 +23772,7 @@
         <v>3.6600000000000001E-2</v>
       </c>
     </row>
-    <row r="955" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A955" s="1">
         <v>37193</v>
       </c>
@@ -23794,7 +23796,7 @@
         <v>3.6699999999999997E-2</v>
       </c>
     </row>
-    <row r="956" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A956" s="1">
         <v>37194</v>
       </c>
@@ -23818,7 +23820,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="957" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
         <v>37195</v>
       </c>
@@ -23842,7 +23844,7 @@
         <v>3.6600000000000001E-2</v>
       </c>
     </row>
-    <row r="958" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A958" s="1">
         <v>37196</v>
       </c>
@@ -23866,7 +23868,7 @@
         <v>3.6299999999999999E-2</v>
       </c>
     </row>
-    <row r="959" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A959" s="1">
         <v>37197</v>
       </c>
@@ -23890,7 +23892,7 @@
         <v>3.6600000000000001E-2</v>
       </c>
     </row>
-    <row r="960" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
         <v>37200</v>
       </c>
@@ -23914,7 +23916,7 @@
         <v>3.6299999999999999E-2</v>
       </c>
     </row>
-    <row r="961" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A961" s="1">
         <v>37201</v>
       </c>
@@ -23938,7 +23940,7 @@
         <v>3.61E-2</v>
       </c>
     </row>
-    <row r="962" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A962" s="1">
         <v>37202</v>
       </c>
@@ -23962,7 +23964,7 @@
         <v>3.5299999999999998E-2</v>
       </c>
     </row>
-    <row r="963" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A963" s="1">
         <v>37203</v>
       </c>
@@ -23986,7 +23988,7 @@
         <v>3.56E-2</v>
       </c>
     </row>
-    <row r="964" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A964" s="1">
         <v>37204</v>
       </c>
@@ -24010,7 +24012,7 @@
         <v>3.56E-2</v>
       </c>
     </row>
-    <row r="965" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A965" s="1">
         <v>37207</v>
       </c>
@@ -24034,7 +24036,7 @@
         <v>3.5699999999999996E-2</v>
       </c>
     </row>
-    <row r="966" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A966" s="1">
         <v>37208</v>
       </c>
@@ -24058,7 +24060,7 @@
         <v>3.6000000000000004E-2</v>
       </c>
     </row>
-    <row r="967" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A967" s="1">
         <v>37209</v>
       </c>
@@ -24082,7 +24084,7 @@
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
-    <row r="968" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A968" s="1">
         <v>37210</v>
       </c>
@@ -24106,7 +24108,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="969" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A969" s="1">
         <v>37211</v>
       </c>
@@ -24130,7 +24132,7 @@
         <v>3.73E-2</v>
       </c>
     </row>
-    <row r="970" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A970" s="1">
         <v>37214</v>
       </c>
@@ -24154,7 +24156,7 @@
         <v>3.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="971" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A971" s="1">
         <v>37215</v>
       </c>
@@ -24178,7 +24180,7 @@
         <v>3.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="972" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A972" s="1">
         <v>37216</v>
       </c>
@@ -24202,7 +24204,7 @@
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
-    <row r="973" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A973" s="1">
         <v>37217</v>
       </c>
@@ -24226,7 +24228,7 @@
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
-    <row r="974" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A974" s="1">
         <v>37218</v>
       </c>
@@ -24250,7 +24252,7 @@
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
-    <row r="975" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A975" s="1">
         <v>37221</v>
       </c>
@@ -24274,7 +24276,7 @@
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
-    <row r="976" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A976" s="1">
         <v>37222</v>
       </c>
@@ -24298,7 +24300,7 @@
         <v>3.7599999999999995E-2</v>
       </c>
     </row>
-    <row r="977" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A977" s="1">
         <v>37223</v>
       </c>
@@ -24322,7 +24324,7 @@
         <v>3.7699999999999997E-2</v>
       </c>
     </row>
-    <row r="978" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
         <v>37224</v>
       </c>
@@ -24346,7 +24348,7 @@
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
-    <row r="979" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A979" s="1">
         <v>37225</v>
       </c>
@@ -24370,7 +24372,7 @@
         <v>3.73E-2</v>
       </c>
     </row>
-    <row r="980" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A980" s="1">
         <v>37228</v>
       </c>
@@ -24394,7 +24396,7 @@
         <v>3.73E-2</v>
       </c>
     </row>
-    <row r="981" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A981" s="1">
         <v>37229</v>
       </c>
@@ -24418,7 +24420,7 @@
         <v>3.7200000000000004E-2</v>
       </c>
     </row>
-    <row r="982" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A982" s="1">
         <v>37230</v>
       </c>
@@ -24442,7 +24444,7 @@
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
-    <row r="983" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A983" s="1">
         <v>37231</v>
       </c>
@@ -24466,7 +24468,7 @@
         <v>3.7900000000000003E-2</v>
       </c>
     </row>
-    <row r="984" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A984" s="1">
         <v>37232</v>
       </c>
@@ -24490,7 +24492,7 @@
         <v>3.7699999999999997E-2</v>
       </c>
     </row>
-    <row r="985" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A985" s="1">
         <v>37235</v>
       </c>
@@ -24514,7 +24516,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="986" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A986" s="1">
         <v>37236</v>
       </c>
@@ -24538,7 +24540,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="987" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A987" s="1">
         <v>37237</v>
       </c>
@@ -24562,7 +24564,7 @@
         <v>3.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="988" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A988" s="1">
         <v>37238</v>
       </c>
@@ -24586,7 +24588,7 @@
         <v>3.73E-2</v>
       </c>
     </row>
-    <row r="989" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A989" s="1">
         <v>37239</v>
       </c>
@@ -24610,7 +24612,7 @@
         <v>3.7400000000000003E-2</v>
       </c>
     </row>
-    <row r="990" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A990" s="1">
         <v>37242</v>
       </c>
@@ -24634,7 +24636,7 @@
         <v>3.73E-2</v>
       </c>
     </row>
-    <row r="991" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A991" s="1">
         <v>37243</v>
       </c>
@@ -24658,7 +24660,7 @@
         <v>3.73E-2</v>
       </c>
     </row>
-    <row r="992" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A992" s="1">
         <v>37244</v>
       </c>
@@ -24682,7 +24684,7 @@
         <v>3.6900000000000002E-2</v>
       </c>
     </row>
-    <row r="993" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A993" s="1">
         <v>37245</v>
       </c>
@@ -24706,7 +24708,7 @@
         <v>3.705E-2</v>
       </c>
     </row>
-    <row r="994" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A994" s="1">
         <v>37246</v>
       </c>
@@ -24730,7 +24732,7 @@
         <v>3.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="995" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A995" s="1">
         <v>37252</v>
       </c>
@@ -24754,7 +24756,7 @@
         <v>3.7200000000000004E-2</v>
       </c>
     </row>
-    <row r="996" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A996" s="1">
         <v>37253</v>
       </c>
@@ -24784,12 +24786,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100E825780FFF0FDF43AF9E88D3D0DD3F64" ma:contentTypeVersion="2" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="85bd80a5e468ea5561f0835e87691bea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d973635-663e-44ce-8d6c-70fd171f495a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cf3fc15204a56ef9345b094e583ba4b" ns2:_="">
     <xsd:import namespace="8d973635-663e-44ce-8d6c-70fd171f495a"/>
@@ -24921,6 +24917,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -24931,22 +24933,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{449188B4-4BDF-450B-8953-4DEA7D9AB904}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8d973635-663e-44ce-8d6c-70fd171f495a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C0C5AD0-5984-468E-A604-7F6BE591EFAF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24964,6 +24950,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{449188B4-4BDF-450B-8953-4DEA7D9AB904}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8d973635-663e-44ce-8d6c-70fd171f495a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF15EFC-AC7F-42BC-85CA-1DE95B4D8D94}">
   <ds:schemaRefs>

--- a/finrisk/Lab3/DataLab3Student.xlsx
+++ b/finrisk/Lab3/DataLab3Student.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah\Desktop\Skola\År 4\Finrisk + Monte Carlo\LP32020\LP32020\finrisk\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C027D10-3E1B-40AE-95A4-13C132F26369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3434C55A-2063-4180-9D2F-14AA70061332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="2745" windowWidth="19185" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -144,11 +144,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000000000000"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="169" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -195,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -209,6 +210,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,12 +681,12 @@
         <v>487.07609511363637</v>
       </c>
       <c r="N4" s="11">
-        <f>K20*AVERAGE(B434:B454)/10^9</f>
-        <v>523.14823264285712</v>
-      </c>
-      <c r="O4" s="11">
         <f>K20*AVERAGE(B685:B706)/10^9</f>
         <v>1037.1310872272727</v>
+      </c>
+      <c r="O4" s="11">
+        <f>K20*AVERAGE(B915:B934)/10^9</f>
+        <v>292.77777823000002</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -726,12 +728,12 @@
         <v>3.0047727272727275E-2</v>
       </c>
       <c r="N5" s="10">
-        <f>AVERAGE(H434:H454)</f>
-        <v>3.2314285714285719E-2</v>
-      </c>
-      <c r="O5" s="10">
         <f>AVERAGE(H685:H706)</f>
         <v>3.9831818181818184E-2</v>
+      </c>
+      <c r="O5" s="10">
+        <f>AVERAGE(H915:H934)</f>
+        <v>4.0075E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -761,24 +763,24 @@
         <v>15</v>
       </c>
       <c r="K6" s="11">
-        <f>AVERAGE(E23:E42)/10^9</f>
-        <v>481.12588306643244</v>
+        <f>AVERAGE(E22:E41)/10^9</f>
+        <v>480.8758871641885</v>
       </c>
       <c r="L6" s="11">
-        <f>AVERAGE(E166:E187)/10^9</f>
-        <v>517.12529298955849</v>
+        <f>AVERAGE(E165:E186)/10^9</f>
+        <v>516.87529708731449</v>
       </c>
       <c r="M6" s="11">
-        <f>AVERAGE(E391:E412)/10^9</f>
-        <v>601.84677419354773</v>
+        <f>AVERAGE(E390:E411)/10^9</f>
+        <v>601.41129032258016</v>
       </c>
       <c r="N6" s="11">
-        <f>AVERAGE(E435:E455)/10^9</f>
-        <v>620.79032258064456</v>
+        <f>AVERAGE(E685:E706)/10^9</f>
+        <v>762.7</v>
       </c>
       <c r="O6" s="11">
-        <f>AVERAGE(E686:E707)/10^9</f>
-        <v>763.3</v>
+        <f>AVERAGE(E915:E934)/10^9</f>
+        <v>828.7</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -808,24 +810,24 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <f>_xlfn.STDEV.P(C22:C41)*SQRT(252)/2</f>
-        <v>0.10478604887854083</v>
+        <f>_xlfn.STDEV.S(C22:C41)*SQRT(252)/2</f>
+        <v>0.10750821774991974</v>
       </c>
       <c r="L7">
-        <f>_xlfn.STDEV.P(C165:C186)*SQRT(252)/2</f>
-        <v>0.32173833713029798</v>
+        <f>_xlfn.STDEV.S(C165:C186)*SQRT(252)/2</f>
+        <v>0.32930968683756257</v>
       </c>
       <c r="M7">
-        <f>_xlfn.STDEV.P(C390:C411)*SQRT(252)/2</f>
-        <v>0.16318166367859324</v>
+        <f>_xlfn.STDEV.S(C390:C411)*SQRT(252)/2</f>
+        <v>0.16702175762743315</v>
       </c>
       <c r="N7">
-        <f>_xlfn.STDEV.P(C434:C454)*SQRT(252)/2</f>
-        <v>0.26067694154178905</v>
+        <f>_xlfn.STDEV.S(C685:C706)*SQRT(252)/2</f>
+        <v>0.45397604795181762</v>
       </c>
       <c r="O7">
-        <f>_xlfn.STDEV.P(C685:C706)*SQRT(252)/2</f>
-        <v>0.44353842174417862</v>
+        <f>_xlfn.STDEV.S(C915:C934)*SQRT(252)/2</f>
+        <v>0.45707634618931708</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -855,19 +857,19 @@
         <v>17</v>
       </c>
       <c r="K8" s="11">
-        <v>778.20702036411251</v>
+        <v>777.96762687202784</v>
       </c>
       <c r="L8" s="11">
-        <v>799.01911267643425</v>
+        <v>798.11346549327698</v>
       </c>
       <c r="M8" s="11">
-        <v>1071.1046222616208</v>
+        <v>1070.6806450530303</v>
       </c>
       <c r="N8" s="11">
-        <v>1123.6201436399663</v>
+        <v>1764.9547625728442</v>
       </c>
       <c r="O8" s="11">
-        <v>1766.2046813630648</v>
+        <v>1011.8977793900551</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -898,23 +900,23 @@
       </c>
       <c r="K9">
         <f>(LN(K8/K6) + (K5+(K7^2)/2))/K7</f>
-        <v>5.0550020585898112</v>
+        <v>4.9316668639890393</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:O9" si="1">(LN(L8/L6) + (L5+(L7^2)/2))/L7</f>
-        <v>1.6432981031458238</v>
+        <v>1.6110249279187245</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>3.7982498044393482</v>
+        <v>3.7166813962727612</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>2.5303663548262696</v>
+        <v>2.162877355021616</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>2.2030382776672157</v>
+        <v>0.75317619118964341</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -945,23 +947,23 @@
       </c>
       <c r="K10">
         <f>K9-K7</f>
-        <v>4.9502160097112702</v>
+        <v>4.8241586462391197</v>
       </c>
       <c r="L10">
         <f t="shared" ref="L10:O10" si="2">L9-L7</f>
-        <v>1.3215597660155258</v>
+        <v>1.2817152410811619</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>3.635068140760755</v>
+        <v>3.5496596386453279</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>2.2696894132844805</v>
+        <v>1.7089013070697985</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>1.759499855923037</v>
+        <v>0.29609984500032632</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -992,23 +994,23 @@
       </c>
       <c r="K11">
         <f>_xlfn.NORM.S.DIST(K9,TRUE)</f>
-        <v>0.99999978480693685</v>
+        <v>0.99999959234560998</v>
       </c>
       <c r="L11">
         <f t="shared" ref="L11:O11" si="3">_xlfn.NORM.S.DIST(L9,TRUE)</f>
-        <v>0.94983936470710617</v>
+        <v>0.946412855345097</v>
       </c>
       <c r="M11">
         <f t="shared" si="3"/>
-        <v>0.99992713928920463</v>
+        <v>0.99989907163530234</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>0.99430282580441287</v>
+        <v>0.98472469304833854</v>
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>0.98620397456827325</v>
+        <v>0.77432797775635609</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1039,23 +1041,23 @@
       </c>
       <c r="K12">
         <f>_xlfn.NORM.S.DIST(K10,TRUE)</f>
-        <v>0.99999962934421627</v>
+        <v>0.99999929702260382</v>
       </c>
       <c r="L12">
         <f t="shared" ref="L12:O12" si="4">_xlfn.NORM.S.DIST(L10,TRUE)</f>
-        <v>0.90684260575957765</v>
+        <v>0.90002872177109128</v>
       </c>
       <c r="M12">
         <f t="shared" si="4"/>
-        <v>0.99986104641442997</v>
+        <v>0.99980713524355136</v>
       </c>
       <c r="N12">
         <f t="shared" si="4"/>
-        <v>0.98838678289944559</v>
+        <v>0.95626538381403803</v>
       </c>
       <c r="O12">
         <f t="shared" si="4"/>
-        <v>0.96075367765228503</v>
+        <v>0.61642308382305222</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1086,23 +1088,23 @@
       </c>
       <c r="K13" s="9">
         <f xml:space="preserve"> (K4-(K8*K11-K6*EXP(-K5)*K12))^2</f>
-        <v>5.2249001267542947E-12</v>
+        <v>2.0390798293083457E-18</v>
       </c>
       <c r="L13" s="9">
         <f xml:space="preserve"> (L4-(L8*L11-L6*EXP(-L5)*L12))^2</f>
-        <v>1.7734688323725221E-10</v>
+        <v>1.1432414778481379E-20</v>
       </c>
       <c r="M13" s="9">
         <f t="shared" ref="M13:O13" si="5" xml:space="preserve"> (M4-(M8*M11-M6*EXP(-M5)*M12))^2</f>
-        <v>1.8663262570727687E-23</v>
+        <v>7.680473832099831E-14</v>
       </c>
       <c r="N13" s="9">
         <f t="shared" si="5"/>
-        <v>6.0821847141695564E-18</v>
+        <v>2.4304921522864184E-9</v>
       </c>
       <c r="O13" s="9">
         <f t="shared" si="5"/>
-        <v>7.1754980205404394E-14</v>
+        <v>8.9569310991014915E-9</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1133,23 +1135,23 @@
       </c>
       <c r="K14">
         <f>(LN(K8/K6)+(K5-K7^2/2)/(K8))</f>
-        <v>0.48091227214169296</v>
+        <v>0.48112398756037611</v>
       </c>
       <c r="L14">
         <f t="shared" ref="L14:O14" si="6">(LN(L8/L6)+(L5-L7^2/2)/(L8))</f>
-        <v>0.43508728063292207</v>
+        <v>0.43443363771838639</v>
       </c>
       <c r="M14">
         <f t="shared" si="6"/>
-        <v>0.57645848995198468</v>
+        <v>0.57678583509737813</v>
       </c>
       <c r="N14">
         <f t="shared" si="6"/>
-        <v>0.59331616361480621</v>
+        <v>0.83897975264194546</v>
       </c>
       <c r="O14">
         <f t="shared" si="6"/>
-        <v>0.83890399713753538</v>
+        <v>0.19966100101413389</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1180,23 +1182,23 @@
       </c>
       <c r="K15">
         <f>_xlfn.NORM.S.DIST(-K14,TRUE)</f>
-        <v>0.31528942514286362</v>
+        <v>0.31521419024031416</v>
       </c>
       <c r="L15">
         <f>_xlfn.NORM.S.DIST(-L14,TRUE)</f>
-        <v>0.33174953774186294</v>
+        <v>0.33198678771494489</v>
       </c>
       <c r="M15">
         <f>_xlfn.NORM.S.DIST(-M14,TRUE)</f>
-        <v>0.28215265981056215</v>
+        <v>0.28204206977292512</v>
       </c>
       <c r="N15">
         <f>_xlfn.NORM.S.DIST(-N14,TRUE)</f>
-        <v>0.27648479172801055</v>
+        <v>0.20074033583886983</v>
       </c>
       <c r="O15">
         <f>_xlfn.NORM.S.DIST(-O14,TRUE)</f>
-        <v>0.20076159229865853</v>
+        <v>0.42087285812902225</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1227,23 +1229,23 @@
       </c>
       <c r="K16" s="12">
         <f>(LN(K6)-LN(K8-K4))-K5</f>
-        <v>1.2131729093534105E-8</v>
+        <v>1.4260058606163639E-8</v>
       </c>
       <c r="L16" s="12">
         <f>(LN(L6)-LN(L8-L4))-L5</f>
-        <v>1.24174056446388E-2</v>
-      </c>
-      <c r="M16" s="12">
+        <v>1.378455082097476E-2</v>
+      </c>
+      <c r="M16" s="13">
         <f>(LN(M6)-LN(M8-M4))-M5</f>
-        <v>5.3282293242321033E-6</v>
+        <v>7.7035548791473674E-6</v>
       </c>
       <c r="N16" s="12">
         <f>(LN(N6)-LN(N8-N4))-N5</f>
-        <v>9.6323000547184762E-4</v>
+        <v>6.9741363235054712E-3</v>
       </c>
       <c r="O16" s="12">
         <f>(LN(O6)-LN(O8-O4))-O5</f>
-        <v>6.0446415339786078E-3</v>
+        <v>0.10175496397669356</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -24786,6 +24788,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100E825780FFF0FDF43AF9E88D3D0DD3F64" ma:contentTypeVersion="2" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="85bd80a5e468ea5561f0835e87691bea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d973635-663e-44ce-8d6c-70fd171f495a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cf3fc15204a56ef9345b094e583ba4b" ns2:_="">
     <xsd:import namespace="8d973635-663e-44ce-8d6c-70fd171f495a"/>
@@ -24917,12 +24925,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -24933,6 +24935,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{449188B4-4BDF-450B-8953-4DEA7D9AB904}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8d973635-663e-44ce-8d6c-70fd171f495a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C0C5AD0-5984-468E-A604-7F6BE591EFAF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24950,22 +24968,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{449188B4-4BDF-450B-8953-4DEA7D9AB904}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8d973635-663e-44ce-8d6c-70fd171f495a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF15EFC-AC7F-42BC-85CA-1DE95B4D8D94}">
   <ds:schemaRefs>

--- a/finrisk/Lab3/DataLab3Student.xlsx
+++ b/finrisk/Lab3/DataLab3Student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah\Desktop\Skola\År 4\Finrisk + Monte Carlo\LP32020\LP32020\finrisk\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3434C55A-2063-4180-9D2F-14AA70061332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3262889A-8671-4506-81FB-E198FB5C8AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>$r_f$</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>$\sigma_A$</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   <si>
     <t xml:space="preserve"> Oct 01</t>
   </si>
+  <si>
+    <t>K</t>
+  </si>
 </sst>
 </file>
 
@@ -149,7 +149,7 @@
     <numFmt numFmtId="165" formatCode="0.00000000000000"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
-    <numFmt numFmtId="169" formatCode="0.00000%"/>
+    <numFmt numFmtId="168" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -210,7 +210,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:O996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,19 +603,19 @@
       </c>
       <c r="I2" s="8"/>
       <c r="K2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
         <v>22</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>4.4800000000000006E-2</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="11">
         <f>AVERAGE(E22:E41)/10^9</f>
@@ -807,7 +807,7 @@
         <v>4.4299999999999999E-2</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7">
         <f>_xlfn.STDEV.S(C22:C41)*SQRT(252)/2</f>
@@ -854,7 +854,7 @@
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="11">
         <v>777.96762687202784</v>
@@ -1084,7 +1084,7 @@
         <v>4.41E-2</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K13" s="9">
         <f xml:space="preserve"> (K4-(K8*K11-K6*EXP(-K5)*K12))^2</f>
@@ -1134,24 +1134,24 @@
         <v>5</v>
       </c>
       <c r="K14">
-        <f>(LN(K8/K6)+(K5-K7^2/2)/(K8))</f>
-        <v>0.48112398756037611</v>
+        <f>(LN(K8/K6)+(K5-(K7^2)/2))/(K7)</f>
+        <v>4.8241586462391197</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:O14" si="6">(LN(L8/L6)+(L5-L7^2/2)/(L8))</f>
-        <v>0.43443363771838639</v>
+        <f t="shared" ref="L14:O14" si="6">(LN(L8/L6)+(L5-(L7^2)/2))/(L7)</f>
+        <v>1.2817152410811619</v>
       </c>
       <c r="M14">
         <f t="shared" si="6"/>
-        <v>0.57678583509737813</v>
+        <v>3.5496596386453283</v>
       </c>
       <c r="N14">
         <f t="shared" si="6"/>
-        <v>0.83897975264194546</v>
+        <v>1.7089013070697985</v>
       </c>
       <c r="O14">
         <f t="shared" si="6"/>
-        <v>0.19966100101413389</v>
+        <v>0.29609984500032638</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1180,25 +1180,25 @@
       <c r="J15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="10">
         <f>_xlfn.NORM.S.DIST(-K14,TRUE)</f>
-        <v>0.31521419024031416</v>
-      </c>
-      <c r="L15">
+        <v>7.0297739612883502E-7</v>
+      </c>
+      <c r="L15" s="10">
         <f>_xlfn.NORM.S.DIST(-L14,TRUE)</f>
-        <v>0.33198678771494489</v>
-      </c>
-      <c r="M15">
+        <v>9.9971278228908694E-2</v>
+      </c>
+      <c r="M15" s="10">
         <f>_xlfn.NORM.S.DIST(-M14,TRUE)</f>
-        <v>0.28204206977292512</v>
-      </c>
-      <c r="N15">
+        <v>1.9286475644868779E-4</v>
+      </c>
+      <c r="N15" s="10">
         <f>_xlfn.NORM.S.DIST(-N14,TRUE)</f>
-        <v>0.20074033583886983</v>
-      </c>
-      <c r="O15">
+        <v>4.3734616185961944E-2</v>
+      </c>
+      <c r="O15" s="10">
         <f>_xlfn.NORM.S.DIST(-O14,TRUE)</f>
-        <v>0.42087285812902225</v>
+        <v>0.38357691617694772</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -24788,12 +24788,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100E825780FFF0FDF43AF9E88D3D0DD3F64" ma:contentTypeVersion="2" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="85bd80a5e468ea5561f0835e87691bea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d973635-663e-44ce-8d6c-70fd171f495a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cf3fc15204a56ef9345b094e583ba4b" ns2:_="">
     <xsd:import namespace="8d973635-663e-44ce-8d6c-70fd171f495a"/>
@@ -24925,6 +24919,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -24935,22 +24935,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{449188B4-4BDF-450B-8953-4DEA7D9AB904}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8d973635-663e-44ce-8d6c-70fd171f495a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C0C5AD0-5984-468E-A604-7F6BE591EFAF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24968,6 +24952,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{449188B4-4BDF-450B-8953-4DEA7D9AB904}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8d973635-663e-44ce-8d6c-70fd171f495a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF15EFC-AC7F-42BC-85CA-1DE95B4D8D94}">
   <ds:schemaRefs>

--- a/finrisk/Lab3/DataLab3Student.xlsx
+++ b/finrisk/Lab3/DataLab3Student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noah\Desktop\Skola\År 4\Finrisk + Monte Carlo\LP32020\LP32020\finrisk\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3262889A-8671-4506-81FB-E198FB5C8AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C71F3B5-9CBC-426A-87F7-54D39BEE4A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>SHARE PRICE ERICSSON B  (SEK)</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
   <dimension ref="A1:O996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,6 +605,9 @@
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="I2" s="8"/>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
       <c r="K2" s="6" t="s">
         <v>20</v>
       </c>
@@ -24788,6 +24794,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100E825780FFF0FDF43AF9E88D3D0DD3F64" ma:contentTypeVersion="2" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="85bd80a5e468ea5561f0835e87691bea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8d973635-663e-44ce-8d6c-70fd171f495a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cf3fc15204a56ef9345b094e583ba4b" ns2:_="">
     <xsd:import namespace="8d973635-663e-44ce-8d6c-70fd171f495a"/>
@@ -24919,12 +24931,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -24935,6 +24941,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{449188B4-4BDF-450B-8953-4DEA7D9AB904}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8d973635-663e-44ce-8d6c-70fd171f495a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C0C5AD0-5984-468E-A604-7F6BE591EFAF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24952,22 +24974,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{449188B4-4BDF-450B-8953-4DEA7D9AB904}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8d973635-663e-44ce-8d6c-70fd171f495a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDF15EFC-AC7F-42BC-85CA-1DE95B4D8D94}">
   <ds:schemaRefs>
